--- a/databases/matrizes.xlsx
+++ b/databases/matrizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{C73B6968-9EDC-4DCD-AFB6-2A06D4FF3A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1198AFC7-AF3C-48E8-99EB-512F51C2FB86}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C73B6968-9EDC-4DCD-AFB6-2A06D4FF3A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7C3112-B8F2-485A-9E0A-7D4B351ADFAD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,7 +1196,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}" name="Table1" displayName="Table1" ref="A1:Y144" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:Y144" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}"/>
+  <autoFilter ref="A1:Y144" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Presencial 70.30"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{007A1E24-6F16-4C02-9E6C-A73263605E88}" name="MODELO"/>
     <tableColumn id="2" xr3:uid="{011ED288-C3F7-4C41-833D-E98B1859D0DA}" name="Semestre"/>
@@ -1495,7 +1501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1596,7 +1604,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.6">
+    <row r="2" spans="1:25" ht="15.6" hidden="1">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1671,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" hidden="1">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1746,7 +1754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" hidden="1">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1821,7 +1829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" hidden="1">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1892,7 +1900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" hidden="1">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1961,7 +1969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" hidden="1">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2030,7 +2038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" hidden="1">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2099,7 +2107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" hidden="1">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2168,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" hidden="1">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2237,7 +2245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" hidden="1">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2306,7 +2314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" hidden="1">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2375,7 +2383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" hidden="1">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2444,7 +2452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" hidden="1">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2513,7 +2521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" hidden="1">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2582,7 +2590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" hidden="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2651,7 +2659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" hidden="1">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2720,7 +2728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" hidden="1">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2789,7 +2797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" hidden="1">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2858,7 +2866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" hidden="1">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2927,7 +2935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" hidden="1">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2996,7 +3004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" hidden="1">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4750,7 +4758,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" hidden="1">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -4827,7 +4835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" hidden="1">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -4904,7 +4912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" hidden="1">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -4979,7 +4987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" hidden="1">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -5050,7 +5058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" hidden="1">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -5127,7 +5135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" hidden="1">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5204,7 +5212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" hidden="1">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -5281,7 +5289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" hidden="1">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -5358,7 +5366,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" hidden="1">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -5435,7 +5443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" hidden="1">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -5512,7 +5520,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" hidden="1">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5589,7 +5597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" hidden="1">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -5666,7 +5674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" hidden="1">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -5737,7 +5745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" hidden="1">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -5814,7 +5822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" hidden="1">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -5891,7 +5899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" hidden="1">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -5968,7 +5976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" hidden="1">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -6045,7 +6053,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" hidden="1">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -6116,7 +6124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" hidden="1">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -6193,7 +6201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" hidden="1">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -6270,7 +6278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" hidden="1">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -6317,7 +6325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" hidden="1">
       <c r="A69" s="62" t="s">
         <v>67</v>
       </c>
@@ -6386,7 +6394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" hidden="1">
       <c r="A70" s="62" t="s">
         <v>67</v>
       </c>
@@ -6455,7 +6463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" hidden="1">
       <c r="A71" s="62" t="s">
         <v>67</v>
       </c>
@@ -6524,7 +6532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" hidden="1">
       <c r="A72" s="62" t="s">
         <v>67</v>
       </c>
@@ -6593,7 +6601,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" hidden="1">
       <c r="A73" s="62" t="s">
         <v>67</v>
       </c>
@@ -6662,7 +6670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" hidden="1">
       <c r="A74" s="62" t="s">
         <v>67</v>
       </c>
@@ -6731,7 +6739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" hidden="1">
       <c r="A75" s="62" t="s">
         <v>67</v>
       </c>
@@ -6800,7 +6808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" hidden="1">
       <c r="A76" s="62" t="s">
         <v>67</v>
       </c>
@@ -6869,7 +6877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" hidden="1">
       <c r="A77" s="62" t="s">
         <v>67</v>
       </c>
@@ -6938,7 +6946,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" hidden="1">
       <c r="A78" s="62" t="s">
         <v>67</v>
       </c>
@@ -7007,7 +7015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" hidden="1">
       <c r="A79" s="62" t="s">
         <v>67</v>
       </c>
@@ -7076,7 +7084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" hidden="1">
       <c r="A80" s="62" t="s">
         <v>67</v>
       </c>
@@ -7145,7 +7153,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" hidden="1">
       <c r="A81" s="62" t="s">
         <v>67</v>
       </c>
@@ -7214,7 +7222,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" hidden="1">
       <c r="A82" s="62" t="s">
         <v>67</v>
       </c>
@@ -7283,7 +7291,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" hidden="1">
       <c r="A83" s="62" t="s">
         <v>67</v>
       </c>
@@ -7352,7 +7360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" hidden="1">
       <c r="A84" s="62" t="s">
         <v>67</v>
       </c>
@@ -7421,7 +7429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" hidden="1">
       <c r="A85" s="62" t="s">
         <v>67</v>
       </c>
@@ -7490,7 +7498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" hidden="1">
       <c r="A86" s="62" t="s">
         <v>67</v>
       </c>
@@ -7559,7 +7567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" hidden="1">
       <c r="A87" s="62" t="s">
         <v>67</v>
       </c>
@@ -7628,7 +7636,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" hidden="1">
       <c r="A88" s="62" t="s">
         <v>67</v>
       </c>
@@ -7697,7 +7705,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" hidden="1">
       <c r="A89" s="62" t="s">
         <v>67</v>
       </c>
@@ -7766,7 +7774,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" hidden="1">
       <c r="A90" s="62" t="s">
         <v>67</v>
       </c>
@@ -7835,7 +7843,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" hidden="1">
       <c r="A91" s="62" t="s">
         <v>67</v>
       </c>
@@ -7904,7 +7912,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="15" thickBot="1">
+    <row r="92" spans="1:25" hidden="1">
       <c r="A92" s="62" t="s">
         <v>67</v>
       </c>
@@ -7973,7 +7981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15" thickBot="1">
+    <row r="93" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A93" s="62" t="s">
         <v>67</v>
       </c>
@@ -8042,7 +8050,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" hidden="1">
       <c r="A94" s="62" t="s">
         <v>67</v>
       </c>
@@ -8111,7 +8119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" hidden="1">
       <c r="A95" s="62" t="s">
         <v>67</v>
       </c>
@@ -8180,7 +8188,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" hidden="1">
       <c r="A96" s="62" t="s">
         <v>67</v>
       </c>
@@ -8249,7 +8257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" hidden="1">
       <c r="A97" s="62" t="s">
         <v>67</v>
       </c>
@@ -8296,7 +8304,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" hidden="1">
       <c r="A98" s="62" t="s">
         <v>75</v>
       </c>
@@ -8365,7 +8373,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" hidden="1">
       <c r="A99" s="62" t="s">
         <v>75</v>
       </c>
@@ -8434,7 +8442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" hidden="1">
       <c r="A100" s="62" t="s">
         <v>75</v>
       </c>
@@ -8503,7 +8511,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" hidden="1">
       <c r="A101" s="62" t="s">
         <v>75</v>
       </c>
@@ -8572,7 +8580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" hidden="1">
       <c r="A102" s="62" t="s">
         <v>75</v>
       </c>
@@ -8641,7 +8649,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" hidden="1">
       <c r="A103" s="62" t="s">
         <v>75</v>
       </c>
@@ -8710,7 +8718,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" hidden="1">
       <c r="A104" s="62" t="s">
         <v>75</v>
       </c>
@@ -8779,7 +8787,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" hidden="1">
       <c r="A105" s="62" t="s">
         <v>75</v>
       </c>
@@ -8848,7 +8856,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" hidden="1">
       <c r="A106" s="62" t="s">
         <v>75</v>
       </c>
@@ -8917,7 +8925,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" hidden="1">
       <c r="A107" s="62" t="s">
         <v>75</v>
       </c>
@@ -8986,7 +8994,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" hidden="1">
       <c r="A108" s="62" t="s">
         <v>75</v>
       </c>
@@ -9055,7 +9063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" hidden="1">
       <c r="A109" s="62" t="s">
         <v>75</v>
       </c>
@@ -9124,7 +9132,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" hidden="1">
       <c r="A110" s="62" t="s">
         <v>75</v>
       </c>
@@ -9193,7 +9201,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" hidden="1">
       <c r="A111" s="62" t="s">
         <v>75</v>
       </c>
@@ -9262,7 +9270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" hidden="1">
       <c r="A112" s="62" t="s">
         <v>75</v>
       </c>
@@ -9331,7 +9339,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" hidden="1">
       <c r="A113" s="62" t="s">
         <v>75</v>
       </c>
@@ -9400,7 +9408,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" hidden="1">
       <c r="A114" s="62" t="s">
         <v>75</v>
       </c>
@@ -9469,7 +9477,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" hidden="1">
       <c r="A115" s="62" t="s">
         <v>75</v>
       </c>
@@ -9538,7 +9546,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" hidden="1">
       <c r="A116" s="62" t="s">
         <v>75</v>
       </c>
@@ -9607,7 +9615,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" hidden="1">
       <c r="A117" s="62" t="s">
         <v>75</v>
       </c>
@@ -9676,7 +9684,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" hidden="1">
       <c r="A118" s="62" t="s">
         <v>75</v>
       </c>
@@ -9745,7 +9753,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" hidden="1">
       <c r="A119" s="62" t="s">
         <v>75</v>
       </c>
@@ -9814,7 +9822,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" hidden="1">
       <c r="A120" s="62" t="s">
         <v>75</v>
       </c>
@@ -9883,7 +9891,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" hidden="1">
       <c r="A121" s="62" t="s">
         <v>75</v>
       </c>
@@ -9952,7 +9960,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" hidden="1">
       <c r="A122" s="62" t="s">
         <v>75</v>
       </c>
@@ -10021,7 +10029,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" hidden="1">
       <c r="A123" s="62" t="s">
         <v>75</v>
       </c>
@@ -10090,7 +10098,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" hidden="1">
       <c r="A124" s="62" t="s">
         <v>75</v>
       </c>
@@ -10161,7 +10169,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" hidden="1">
       <c r="A125" s="118" t="s">
         <v>96</v>
       </c>
@@ -10238,7 +10246,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" hidden="1">
       <c r="A126" s="118" t="s">
         <v>96</v>
       </c>
@@ -10315,7 +10323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" hidden="1">
       <c r="A127" s="118" t="s">
         <v>96</v>
       </c>
@@ -10390,7 +10398,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" hidden="1">
       <c r="A128" s="118" t="s">
         <v>96</v>
       </c>
@@ -10461,7 +10469,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" hidden="1">
       <c r="A129" s="118" t="s">
         <v>96</v>
       </c>
@@ -10538,7 +10546,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" hidden="1">
       <c r="A130" s="118" t="s">
         <v>96</v>
       </c>
@@ -10615,7 +10623,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" hidden="1">
       <c r="A131" s="118" t="s">
         <v>96</v>
       </c>
@@ -10692,7 +10700,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" hidden="1">
       <c r="A132" s="118" t="s">
         <v>96</v>
       </c>
@@ -10769,7 +10777,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" hidden="1">
       <c r="A133" s="118" t="s">
         <v>96</v>
       </c>
@@ -10846,7 +10854,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" hidden="1">
       <c r="A134" s="118" t="s">
         <v>96</v>
       </c>
@@ -10923,7 +10931,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" hidden="1">
       <c r="A135" s="118" t="s">
         <v>96</v>
       </c>
@@ -11000,7 +11008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" hidden="1">
       <c r="A136" s="118" t="s">
         <v>96</v>
       </c>
@@ -11077,7 +11085,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" hidden="1">
       <c r="A137" s="118" t="s">
         <v>96</v>
       </c>
@@ -11148,7 +11156,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" hidden="1">
       <c r="A138" s="118" t="s">
         <v>96</v>
       </c>
@@ -11225,7 +11233,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" hidden="1">
       <c r="A139" s="118" t="s">
         <v>96</v>
       </c>
@@ -11302,7 +11310,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" hidden="1">
       <c r="A140" s="118" t="s">
         <v>96</v>
       </c>
@@ -11379,7 +11387,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" hidden="1">
       <c r="A141" s="118" t="s">
         <v>96</v>
       </c>
@@ -11456,7 +11464,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" hidden="1">
       <c r="A142" s="118" t="s">
         <v>96</v>
       </c>
@@ -11527,7 +11535,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" hidden="1">
       <c r="A143" s="118" t="s">
         <v>96</v>
       </c>
@@ -11604,7 +11612,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" hidden="1">
       <c r="A144" s="118" t="s">
         <v>96</v>
       </c>

--- a/databases/matrizes.xlsx
+++ b/databases/matrizes.xlsx
@@ -1501,9 +1501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>

--- a/databases/matrizes.xlsx
+++ b/databases/matrizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C73B6968-9EDC-4DCD-AFB6-2A06D4FF3A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7C3112-B8F2-485A-9E0A-7D4B351ADFAD}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{C73B6968-9EDC-4DCD-AFB6-2A06D4FF3A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0399A106-A576-4772-8C15-DC7B78B4B2C0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="98">
   <si>
     <t>UA</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Semi Presencial Atual</t>
+  </si>
+  <si>
+    <t>EAD Atual</t>
   </si>
 </sst>
 </file>
@@ -1195,14 +1198,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}" name="Table1" displayName="Table1" ref="A1:Y144" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:Y144" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Presencial 70.30"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}" name="Table1" displayName="Table1" ref="A1:Y164" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:Y164" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{007A1E24-6F16-4C02-9E6C-A73263605E88}" name="MODELO"/>
     <tableColumn id="2" xr3:uid="{011ED288-C3F7-4C41-833D-E98B1859D0DA}" name="Semestre"/>
@@ -1499,9 +1496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y144"/>
+  <dimension ref="A1:Y164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R161" sqref="R161"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1602,7 +1601,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.6" hidden="1">
+    <row r="2" spans="1:25" ht="15.6">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1967,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2036,7 +2035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25" hidden="1">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:25" hidden="1">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:25" hidden="1">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2864,7 +2863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25" hidden="1">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1">
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3002,7 +3001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1">
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1">
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -4833,7 +4832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:25" hidden="1">
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:25" hidden="1">
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1">
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:25" hidden="1">
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:25" hidden="1">
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5210,7 +5209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1">
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1">
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1">
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -5441,7 +5440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1">
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1">
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1">
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1">
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1">
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1">
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:25" hidden="1">
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1">
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1">
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -6122,7 +6121,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:25" hidden="1">
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -6199,7 +6198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:25" hidden="1">
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1">
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -6323,7 +6322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1">
+    <row r="69" spans="1:25">
       <c r="A69" s="62" t="s">
         <v>67</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1">
+    <row r="70" spans="1:25">
       <c r="A70" s="62" t="s">
         <v>67</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1">
+    <row r="71" spans="1:25">
       <c r="A71" s="62" t="s">
         <v>67</v>
       </c>
@@ -6530,7 +6529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:25" hidden="1">
+    <row r="72" spans="1:25">
       <c r="A72" s="62" t="s">
         <v>67</v>
       </c>
@@ -6599,7 +6598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:25" hidden="1">
+    <row r="73" spans="1:25">
       <c r="A73" s="62" t="s">
         <v>67</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:25" hidden="1">
+    <row r="74" spans="1:25">
       <c r="A74" s="62" t="s">
         <v>67</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:25" hidden="1">
+    <row r="75" spans="1:25">
       <c r="A75" s="62" t="s">
         <v>67</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:25" hidden="1">
+    <row r="76" spans="1:25">
       <c r="A76" s="62" t="s">
         <v>67</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:25" hidden="1">
+    <row r="77" spans="1:25">
       <c r="A77" s="62" t="s">
         <v>67</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:25" hidden="1">
+    <row r="78" spans="1:25">
       <c r="A78" s="62" t="s">
         <v>67</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:25" hidden="1">
+    <row r="79" spans="1:25">
       <c r="A79" s="62" t="s">
         <v>67</v>
       </c>
@@ -7082,7 +7081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:25" hidden="1">
+    <row r="80" spans="1:25">
       <c r="A80" s="62" t="s">
         <v>67</v>
       </c>
@@ -7151,7 +7150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:25" hidden="1">
+    <row r="81" spans="1:25">
       <c r="A81" s="62" t="s">
         <v>67</v>
       </c>
@@ -7220,7 +7219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:25" hidden="1">
+    <row r="82" spans="1:25">
       <c r="A82" s="62" t="s">
         <v>67</v>
       </c>
@@ -7289,7 +7288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:25" hidden="1">
+    <row r="83" spans="1:25">
       <c r="A83" s="62" t="s">
         <v>67</v>
       </c>
@@ -7358,7 +7357,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:25" hidden="1">
+    <row r="84" spans="1:25">
       <c r="A84" s="62" t="s">
         <v>67</v>
       </c>
@@ -7427,7 +7426,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:25" hidden="1">
+    <row r="85" spans="1:25">
       <c r="A85" s="62" t="s">
         <v>67</v>
       </c>
@@ -7496,7 +7495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:25" hidden="1">
+    <row r="86" spans="1:25">
       <c r="A86" s="62" t="s">
         <v>67</v>
       </c>
@@ -7565,7 +7564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:25" hidden="1">
+    <row r="87" spans="1:25">
       <c r="A87" s="62" t="s">
         <v>67</v>
       </c>
@@ -7634,7 +7633,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:25" hidden="1">
+    <row r="88" spans="1:25">
       <c r="A88" s="62" t="s">
         <v>67</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:25" hidden="1">
+    <row r="89" spans="1:25">
       <c r="A89" s="62" t="s">
         <v>67</v>
       </c>
@@ -7772,7 +7771,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:25" hidden="1">
+    <row r="90" spans="1:25">
       <c r="A90" s="62" t="s">
         <v>67</v>
       </c>
@@ -7841,7 +7840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:25" hidden="1">
+    <row r="91" spans="1:25">
       <c r="A91" s="62" t="s">
         <v>67</v>
       </c>
@@ -7910,7 +7909,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:25" hidden="1">
+    <row r="92" spans="1:25" ht="15" thickBot="1">
       <c r="A92" s="62" t="s">
         <v>67</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15" hidden="1" thickBot="1">
+    <row r="93" spans="1:25" ht="15" thickBot="1">
       <c r="A93" s="62" t="s">
         <v>67</v>
       </c>
@@ -8048,7 +8047,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:25" hidden="1">
+    <row r="94" spans="1:25">
       <c r="A94" s="62" t="s">
         <v>67</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:25" hidden="1">
+    <row r="95" spans="1:25">
       <c r="A95" s="62" t="s">
         <v>67</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:25" hidden="1">
+    <row r="96" spans="1:25">
       <c r="A96" s="62" t="s">
         <v>67</v>
       </c>
@@ -8255,7 +8254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:25" hidden="1">
+    <row r="97" spans="1:25">
       <c r="A97" s="62" t="s">
         <v>67</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:25" hidden="1">
+    <row r="98" spans="1:25">
       <c r="A98" s="62" t="s">
         <v>75</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="1:25" hidden="1">
+    <row r="99" spans="1:25">
       <c r="A99" s="62" t="s">
         <v>75</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:25" hidden="1">
+    <row r="100" spans="1:25">
       <c r="A100" s="62" t="s">
         <v>75</v>
       </c>
@@ -8509,7 +8508,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:25" hidden="1">
+    <row r="101" spans="1:25">
       <c r="A101" s="62" t="s">
         <v>75</v>
       </c>
@@ -8578,7 +8577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:25" hidden="1">
+    <row r="102" spans="1:25">
       <c r="A102" s="62" t="s">
         <v>75</v>
       </c>
@@ -8647,7 +8646,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:25" hidden="1">
+    <row r="103" spans="1:25">
       <c r="A103" s="62" t="s">
         <v>75</v>
       </c>
@@ -8716,7 +8715,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:25" hidden="1">
+    <row r="104" spans="1:25">
       <c r="A104" s="62" t="s">
         <v>75</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:25" hidden="1">
+    <row r="105" spans="1:25">
       <c r="A105" s="62" t="s">
         <v>75</v>
       </c>
@@ -8854,7 +8853,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:25" hidden="1">
+    <row r="106" spans="1:25">
       <c r="A106" s="62" t="s">
         <v>75</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:25" hidden="1">
+    <row r="107" spans="1:25">
       <c r="A107" s="62" t="s">
         <v>75</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:25" hidden="1">
+    <row r="108" spans="1:25">
       <c r="A108" s="62" t="s">
         <v>75</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:25" hidden="1">
+    <row r="109" spans="1:25">
       <c r="A109" s="62" t="s">
         <v>75</v>
       </c>
@@ -9130,7 +9129,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:25" hidden="1">
+    <row r="110" spans="1:25">
       <c r="A110" s="62" t="s">
         <v>75</v>
       </c>
@@ -9199,7 +9198,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:25" hidden="1">
+    <row r="111" spans="1:25">
       <c r="A111" s="62" t="s">
         <v>75</v>
       </c>
@@ -9268,7 +9267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:25" hidden="1">
+    <row r="112" spans="1:25">
       <c r="A112" s="62" t="s">
         <v>75</v>
       </c>
@@ -9337,7 +9336,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="1:25" hidden="1">
+    <row r="113" spans="1:25">
       <c r="A113" s="62" t="s">
         <v>75</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="114" spans="1:25" hidden="1">
+    <row r="114" spans="1:25">
       <c r="A114" s="62" t="s">
         <v>75</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:25" hidden="1">
+    <row r="115" spans="1:25">
       <c r="A115" s="62" t="s">
         <v>75</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:25" hidden="1">
+    <row r="116" spans="1:25">
       <c r="A116" s="62" t="s">
         <v>75</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:25" hidden="1">
+    <row r="117" spans="1:25">
       <c r="A117" s="62" t="s">
         <v>75</v>
       </c>
@@ -9682,7 +9681,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:25" hidden="1">
+    <row r="118" spans="1:25">
       <c r="A118" s="62" t="s">
         <v>75</v>
       </c>
@@ -9751,7 +9750,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:25" hidden="1">
+    <row r="119" spans="1:25">
       <c r="A119" s="62" t="s">
         <v>75</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:25" hidden="1">
+    <row r="120" spans="1:25">
       <c r="A120" s="62" t="s">
         <v>75</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:25" hidden="1">
+    <row r="121" spans="1:25">
       <c r="A121" s="62" t="s">
         <v>75</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:25" hidden="1">
+    <row r="122" spans="1:25">
       <c r="A122" s="62" t="s">
         <v>75</v>
       </c>
@@ -10027,7 +10026,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:25" hidden="1">
+    <row r="123" spans="1:25">
       <c r="A123" s="62" t="s">
         <v>75</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:25" hidden="1">
+    <row r="124" spans="1:25">
       <c r="A124" s="62" t="s">
         <v>75</v>
       </c>
@@ -10167,7 +10166,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="1:25" hidden="1">
+    <row r="125" spans="1:25">
       <c r="A125" s="118" t="s">
         <v>96</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="1:25" hidden="1">
+    <row r="126" spans="1:25">
       <c r="A126" s="118" t="s">
         <v>96</v>
       </c>
@@ -10321,7 +10320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:25" hidden="1">
+    <row r="127" spans="1:25">
       <c r="A127" s="118" t="s">
         <v>96</v>
       </c>
@@ -10396,7 +10395,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:25" hidden="1">
+    <row r="128" spans="1:25">
       <c r="A128" s="118" t="s">
         <v>96</v>
       </c>
@@ -10467,7 +10466,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="1:25" hidden="1">
+    <row r="129" spans="1:25">
       <c r="A129" s="118" t="s">
         <v>96</v>
       </c>
@@ -10544,7 +10543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:25" hidden="1">
+    <row r="130" spans="1:25">
       <c r="A130" s="118" t="s">
         <v>96</v>
       </c>
@@ -10621,7 +10620,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:25" hidden="1">
+    <row r="131" spans="1:25">
       <c r="A131" s="118" t="s">
         <v>96</v>
       </c>
@@ -10698,7 +10697,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="1:25" hidden="1">
+    <row r="132" spans="1:25">
       <c r="A132" s="118" t="s">
         <v>96</v>
       </c>
@@ -10775,7 +10774,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1">
+    <row r="133" spans="1:25">
       <c r="A133" s="118" t="s">
         <v>96</v>
       </c>
@@ -10852,7 +10851,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:25" hidden="1">
+    <row r="134" spans="1:25">
       <c r="A134" s="118" t="s">
         <v>96</v>
       </c>
@@ -10929,7 +10928,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:25" hidden="1">
+    <row r="135" spans="1:25">
       <c r="A135" s="118" t="s">
         <v>96</v>
       </c>
@@ -11006,7 +11005,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:25" hidden="1">
+    <row r="136" spans="1:25">
       <c r="A136" s="118" t="s">
         <v>96</v>
       </c>
@@ -11083,7 +11082,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:25" hidden="1">
+    <row r="137" spans="1:25">
       <c r="A137" s="118" t="s">
         <v>96</v>
       </c>
@@ -11154,7 +11153,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="138" spans="1:25" hidden="1">
+    <row r="138" spans="1:25">
       <c r="A138" s="118" t="s">
         <v>96</v>
       </c>
@@ -11231,7 +11230,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:25" hidden="1">
+    <row r="139" spans="1:25">
       <c r="A139" s="118" t="s">
         <v>96</v>
       </c>
@@ -11308,7 +11307,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="140" spans="1:25" hidden="1">
+    <row r="140" spans="1:25">
       <c r="A140" s="118" t="s">
         <v>96</v>
       </c>
@@ -11385,7 +11384,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="1:25" hidden="1">
+    <row r="141" spans="1:25">
       <c r="A141" s="118" t="s">
         <v>96</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="142" spans="1:25" hidden="1">
+    <row r="142" spans="1:25">
       <c r="A142" s="118" t="s">
         <v>96</v>
       </c>
@@ -11533,7 +11532,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:25" hidden="1">
+    <row r="143" spans="1:25">
       <c r="A143" s="118" t="s">
         <v>96</v>
       </c>
@@ -11610,7 +11609,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="144" spans="1:25" hidden="1">
+    <row r="144" spans="1:25">
       <c r="A144" s="118" t="s">
         <v>96</v>
       </c>
@@ -11685,6 +11684,1406 @@
       </c>
       <c r="Y144" s="59">
         <v>118</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" ht="15.6">
+      <c r="A145" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B145" s="24">
+        <v>1</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="1">
+        <v>120</v>
+      </c>
+      <c r="E145" s="1">
+        <v>40</v>
+      </c>
+      <c r="F145" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0</v>
+      </c>
+      <c r="I145" s="1">
+        <v>130</v>
+      </c>
+      <c r="J145" s="1">
+        <v>30</v>
+      </c>
+      <c r="K145" s="1">
+        <v>0</v>
+      </c>
+      <c r="L145" s="1">
+        <v>3</v>
+      </c>
+      <c r="M145" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N145" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O145" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P145" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="Q145" s="63"/>
+      <c r="R145" s="63">
+        <v>2</v>
+      </c>
+      <c r="S145" s="63">
+        <v>3</v>
+      </c>
+      <c r="T145" s="63">
+        <v>3</v>
+      </c>
+      <c r="U145" s="63"/>
+      <c r="V145" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC1</v>
+      </c>
+      <c r="W145" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="X145" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y145" s="59">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
+      <c r="A146" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B146" s="24">
+        <v>1</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="1">
+        <v>120</v>
+      </c>
+      <c r="E146" s="1">
+        <v>40</v>
+      </c>
+      <c r="F146" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
+      <c r="I146" s="1">
+        <v>130</v>
+      </c>
+      <c r="J146" s="1">
+        <v>30</v>
+      </c>
+      <c r="K146" s="1">
+        <v>0</v>
+      </c>
+      <c r="L146" s="1">
+        <v>0</v>
+      </c>
+      <c r="M146" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N146" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O146" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P146" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="Q146" s="63"/>
+      <c r="R146" s="63">
+        <v>2</v>
+      </c>
+      <c r="S146" s="63">
+        <v>3</v>
+      </c>
+      <c r="T146" s="63">
+        <v>3</v>
+      </c>
+      <c r="U146" s="63"/>
+      <c r="V146" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC2</v>
+      </c>
+      <c r="W146" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="X146" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y146" s="59">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25">
+      <c r="A147" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B147" s="24">
+        <v>1</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="1">
+        <v>60</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>60</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0</v>
+      </c>
+      <c r="I147" s="1">
+        <v>60</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1">
+        <v>0</v>
+      </c>
+      <c r="L147" s="1">
+        <v>0</v>
+      </c>
+      <c r="M147" s="3">
+        <v>0</v>
+      </c>
+      <c r="N147" s="3">
+        <v>0</v>
+      </c>
+      <c r="O147" s="3">
+        <v>0</v>
+      </c>
+      <c r="P147" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="63"/>
+      <c r="R147" s="63"/>
+      <c r="S147" s="63">
+        <v>5</v>
+      </c>
+      <c r="T147" s="63">
+        <v>3</v>
+      </c>
+      <c r="U147" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="V147" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>AFP</v>
+      </c>
+      <c r="W147" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="X147" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y147" s="59">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25">
+      <c r="A148" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B148" s="24">
+        <v>1</v>
+      </c>
+      <c r="C148" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>20</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0</v>
+      </c>
+      <c r="H148" s="1">
+        <v>20</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1">
+        <v>0</v>
+      </c>
+      <c r="L148" s="1">
+        <v>0</v>
+      </c>
+      <c r="M148" s="3">
+        <v>0</v>
+      </c>
+      <c r="N148" s="3">
+        <v>0</v>
+      </c>
+      <c r="O148" s="3">
+        <v>0</v>
+      </c>
+      <c r="P148" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="63"/>
+      <c r="R148" s="63"/>
+      <c r="S148" s="63"/>
+      <c r="T148" s="63">
+        <v>5</v>
+      </c>
+      <c r="U148" s="63"/>
+      <c r="V148" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>Ext 1</v>
+      </c>
+      <c r="W148" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="X148" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y148" s="59">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
+      <c r="A149" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B149" s="25">
+        <v>2</v>
+      </c>
+      <c r="C149" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" s="4">
+        <v>120</v>
+      </c>
+      <c r="E149" s="4">
+        <v>40</v>
+      </c>
+      <c r="F149" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G149" s="4">
+        <v>0</v>
+      </c>
+      <c r="H149" s="4">
+        <v>0</v>
+      </c>
+      <c r="I149" s="4">
+        <v>130</v>
+      </c>
+      <c r="J149" s="4">
+        <v>30</v>
+      </c>
+      <c r="K149" s="4">
+        <v>0</v>
+      </c>
+      <c r="L149" s="4">
+        <v>3</v>
+      </c>
+      <c r="M149" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="N149" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="O149" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P149" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="Q149" s="63"/>
+      <c r="R149" s="63"/>
+      <c r="S149" s="63"/>
+      <c r="T149" s="63"/>
+      <c r="U149" s="63"/>
+      <c r="V149" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC3</v>
+      </c>
+      <c r="W149" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X149" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y149" s="59">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25">
+      <c r="A150" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B150" s="25">
+        <v>2</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="4">
+        <v>120</v>
+      </c>
+      <c r="E150" s="4">
+        <v>40</v>
+      </c>
+      <c r="F150" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G150" s="4">
+        <v>0</v>
+      </c>
+      <c r="H150" s="4">
+        <v>0</v>
+      </c>
+      <c r="I150" s="4">
+        <v>130</v>
+      </c>
+      <c r="J150" s="4">
+        <v>30</v>
+      </c>
+      <c r="K150" s="4">
+        <v>0</v>
+      </c>
+      <c r="L150" s="4">
+        <v>0</v>
+      </c>
+      <c r="M150" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="N150" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="O150" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P150" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="Q150" s="63"/>
+      <c r="R150" s="63"/>
+      <c r="S150" s="63"/>
+      <c r="T150" s="63"/>
+      <c r="U150" s="63"/>
+      <c r="V150" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC4</v>
+      </c>
+      <c r="W150" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X150" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y150" s="59">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25">
+      <c r="A151" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B151" s="26">
+        <v>3</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="6">
+        <v>120</v>
+      </c>
+      <c r="E151" s="6">
+        <v>40</v>
+      </c>
+      <c r="F151" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G151" s="6">
+        <v>0</v>
+      </c>
+      <c r="H151" s="6">
+        <v>0</v>
+      </c>
+      <c r="I151" s="6">
+        <v>130</v>
+      </c>
+      <c r="J151" s="6">
+        <v>30</v>
+      </c>
+      <c r="K151" s="6">
+        <v>0</v>
+      </c>
+      <c r="L151" s="6">
+        <v>3</v>
+      </c>
+      <c r="M151" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N151" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="O151" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="P151" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="Q151" s="63"/>
+      <c r="R151" s="63"/>
+      <c r="S151" s="63"/>
+      <c r="T151" s="63"/>
+      <c r="U151" s="63"/>
+      <c r="V151" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC5</v>
+      </c>
+      <c r="W151" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X151" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y151" s="59">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25">
+      <c r="A152" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B152" s="26">
+        <v>3</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="6">
+        <v>120</v>
+      </c>
+      <c r="E152" s="6">
+        <v>40</v>
+      </c>
+      <c r="F152" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G152" s="6">
+        <v>0</v>
+      </c>
+      <c r="H152" s="6">
+        <v>0</v>
+      </c>
+      <c r="I152" s="6">
+        <v>130</v>
+      </c>
+      <c r="J152" s="6">
+        <v>30</v>
+      </c>
+      <c r="K152" s="6">
+        <v>0</v>
+      </c>
+      <c r="L152" s="6">
+        <v>0</v>
+      </c>
+      <c r="M152" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N152" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="O152" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="P152" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="Q152" s="63"/>
+      <c r="R152" s="63"/>
+      <c r="S152" s="63"/>
+      <c r="T152" s="63"/>
+      <c r="U152" s="63"/>
+      <c r="V152" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC6</v>
+      </c>
+      <c r="W152" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X152" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y152" s="59">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25">
+      <c r="A153" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B153" s="27">
+        <v>4</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="8">
+        <v>120</v>
+      </c>
+      <c r="E153" s="8">
+        <v>40</v>
+      </c>
+      <c r="F153" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G153" s="8">
+        <v>0</v>
+      </c>
+      <c r="H153" s="8">
+        <v>0</v>
+      </c>
+      <c r="I153" s="8">
+        <v>130</v>
+      </c>
+      <c r="J153" s="8">
+        <v>30</v>
+      </c>
+      <c r="K153" s="8">
+        <v>0</v>
+      </c>
+      <c r="L153" s="8">
+        <v>3</v>
+      </c>
+      <c r="M153" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N153" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="O153" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="P153" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="Q153" s="63"/>
+      <c r="R153" s="63"/>
+      <c r="S153" s="63"/>
+      <c r="T153" s="63"/>
+      <c r="U153" s="63"/>
+      <c r="V153" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC7</v>
+      </c>
+      <c r="W153" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X153" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y153" s="59">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25">
+      <c r="A154" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B154" s="27">
+        <v>4</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154" s="8">
+        <v>120</v>
+      </c>
+      <c r="E154" s="8">
+        <v>40</v>
+      </c>
+      <c r="F154" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G154" s="8">
+        <v>0</v>
+      </c>
+      <c r="H154" s="8">
+        <v>0</v>
+      </c>
+      <c r="I154" s="8">
+        <v>130</v>
+      </c>
+      <c r="J154" s="8">
+        <v>30</v>
+      </c>
+      <c r="K154" s="8">
+        <v>0</v>
+      </c>
+      <c r="L154" s="8">
+        <v>0</v>
+      </c>
+      <c r="M154" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N154" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="O154" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="P154" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="Q154" s="63"/>
+      <c r="R154" s="63"/>
+      <c r="S154" s="63"/>
+      <c r="T154" s="63"/>
+      <c r="U154" s="63"/>
+      <c r="V154" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC8</v>
+      </c>
+      <c r="W154" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X154" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y154" s="59">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25">
+      <c r="A155" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B155" s="28">
+        <v>5</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" s="10">
+        <v>120</v>
+      </c>
+      <c r="E155" s="10">
+        <v>40</v>
+      </c>
+      <c r="F155" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G155" s="10">
+        <v>0</v>
+      </c>
+      <c r="H155" s="10">
+        <v>0</v>
+      </c>
+      <c r="I155" s="10">
+        <v>130</v>
+      </c>
+      <c r="J155" s="10">
+        <v>30</v>
+      </c>
+      <c r="K155" s="10">
+        <v>0</v>
+      </c>
+      <c r="L155" s="10">
+        <v>3</v>
+      </c>
+      <c r="M155" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="N155" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="O155" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="P155" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="Q155" s="63"/>
+      <c r="R155" s="63"/>
+      <c r="S155" s="63"/>
+      <c r="T155" s="63"/>
+      <c r="U155" s="63"/>
+      <c r="V155" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC9</v>
+      </c>
+      <c r="W155" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X155" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y155" s="59">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25">
+      <c r="A156" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B156" s="28">
+        <v>5</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="10">
+        <v>120</v>
+      </c>
+      <c r="E156" s="10">
+        <v>40</v>
+      </c>
+      <c r="F156" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G156" s="10">
+        <v>0</v>
+      </c>
+      <c r="H156" s="10">
+        <v>0</v>
+      </c>
+      <c r="I156" s="10">
+        <v>130</v>
+      </c>
+      <c r="J156" s="10">
+        <v>30</v>
+      </c>
+      <c r="K156" s="10">
+        <v>0</v>
+      </c>
+      <c r="L156" s="10">
+        <v>0</v>
+      </c>
+      <c r="M156" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="N156" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="O156" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="P156" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="Q156" s="63"/>
+      <c r="R156" s="63"/>
+      <c r="S156" s="63"/>
+      <c r="T156" s="63"/>
+      <c r="U156" s="63"/>
+      <c r="V156" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC10</v>
+      </c>
+      <c r="W156" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X156" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y156" s="59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25">
+      <c r="A157" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B157" s="28">
+        <v>5</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D157" s="10">
+        <v>140</v>
+      </c>
+      <c r="E157" s="10">
+        <v>0</v>
+      </c>
+      <c r="F157" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>140</v>
+      </c>
+      <c r="G157" s="10">
+        <v>0</v>
+      </c>
+      <c r="H157" s="10">
+        <v>140</v>
+      </c>
+      <c r="I157" s="10">
+        <v>0</v>
+      </c>
+      <c r="J157" s="10">
+        <v>0</v>
+      </c>
+      <c r="K157" s="10">
+        <v>0</v>
+      </c>
+      <c r="L157" s="10">
+        <v>0</v>
+      </c>
+      <c r="M157" s="11">
+        <v>0</v>
+      </c>
+      <c r="N157" s="11">
+        <v>0</v>
+      </c>
+      <c r="O157" s="11">
+        <v>0</v>
+      </c>
+      <c r="P157" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="63"/>
+      <c r="R157" s="63"/>
+      <c r="S157" s="63"/>
+      <c r="T157" s="63"/>
+      <c r="U157" s="63"/>
+      <c r="V157" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>Ext 2</v>
+      </c>
+      <c r="W157" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="X157" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y157" s="59">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25">
+      <c r="A158" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B158" s="29">
+        <v>6</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" s="12">
+        <v>120</v>
+      </c>
+      <c r="E158" s="12">
+        <v>40</v>
+      </c>
+      <c r="F158" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G158" s="12">
+        <v>0</v>
+      </c>
+      <c r="H158" s="12">
+        <v>0</v>
+      </c>
+      <c r="I158" s="12">
+        <v>130</v>
+      </c>
+      <c r="J158" s="12">
+        <v>30</v>
+      </c>
+      <c r="K158" s="12">
+        <v>0</v>
+      </c>
+      <c r="L158" s="12">
+        <v>3</v>
+      </c>
+      <c r="M158" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="N158" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="O158" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="P158" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="Q158" s="63"/>
+      <c r="R158" s="63"/>
+      <c r="S158" s="63"/>
+      <c r="T158" s="63"/>
+      <c r="U158" s="63"/>
+      <c r="V158" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC11</v>
+      </c>
+      <c r="W158" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X158" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y158" s="59">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25">
+      <c r="A159" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B159" s="29">
+        <v>6</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" s="12">
+        <v>120</v>
+      </c>
+      <c r="E159" s="12">
+        <v>40</v>
+      </c>
+      <c r="F159" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G159" s="12">
+        <v>0</v>
+      </c>
+      <c r="H159" s="12">
+        <v>0</v>
+      </c>
+      <c r="I159" s="12">
+        <v>130</v>
+      </c>
+      <c r="J159" s="12">
+        <v>30</v>
+      </c>
+      <c r="K159" s="12">
+        <v>0</v>
+      </c>
+      <c r="L159" s="12">
+        <v>0</v>
+      </c>
+      <c r="M159" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="N159" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="O159" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="P159" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="Q159" s="63"/>
+      <c r="R159" s="63"/>
+      <c r="S159" s="63"/>
+      <c r="T159" s="63"/>
+      <c r="U159" s="63"/>
+      <c r="V159" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC12</v>
+      </c>
+      <c r="W159" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X159" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y159" s="59">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25">
+      <c r="A160" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B160" s="30">
+        <v>7</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" s="14">
+        <v>120</v>
+      </c>
+      <c r="E160" s="14">
+        <v>40</v>
+      </c>
+      <c r="F160" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G160" s="14">
+        <v>0</v>
+      </c>
+      <c r="H160" s="14">
+        <v>0</v>
+      </c>
+      <c r="I160" s="14">
+        <v>160</v>
+      </c>
+      <c r="J160" s="14">
+        <v>0</v>
+      </c>
+      <c r="K160" s="14">
+        <v>0</v>
+      </c>
+      <c r="L160" s="14">
+        <v>3</v>
+      </c>
+      <c r="M160" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N160" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="O160" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P160" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="Q160" s="63"/>
+      <c r="R160" s="63"/>
+      <c r="S160" s="63"/>
+      <c r="T160" s="63"/>
+      <c r="U160" s="63"/>
+      <c r="V160" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC13</v>
+      </c>
+      <c r="W160" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X160" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y160" s="59">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25">
+      <c r="A161" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B161" s="30">
+        <v>7</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161" s="16">
+        <v>120</v>
+      </c>
+      <c r="E161" s="16">
+        <v>40</v>
+      </c>
+      <c r="F161" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G161" s="14">
+        <v>0</v>
+      </c>
+      <c r="H161" s="14">
+        <v>0</v>
+      </c>
+      <c r="I161" s="14">
+        <v>160</v>
+      </c>
+      <c r="J161" s="14">
+        <v>0</v>
+      </c>
+      <c r="K161" s="14">
+        <v>0</v>
+      </c>
+      <c r="L161" s="14">
+        <v>0</v>
+      </c>
+      <c r="M161" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N161" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="O161" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P161" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="Q161" s="63"/>
+      <c r="R161" s="63"/>
+      <c r="S161" s="63"/>
+      <c r="T161" s="63"/>
+      <c r="U161" s="63"/>
+      <c r="V161" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC14</v>
+      </c>
+      <c r="W161" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X161" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y161" s="59">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25">
+      <c r="A162" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B162" s="30">
+        <v>7</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" s="16">
+        <v>150</v>
+      </c>
+      <c r="E162" s="16">
+        <v>0</v>
+      </c>
+      <c r="F162" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>140</v>
+      </c>
+      <c r="G162" s="14">
+        <v>0</v>
+      </c>
+      <c r="H162" s="14">
+        <v>140</v>
+      </c>
+      <c r="I162" s="14">
+        <v>0</v>
+      </c>
+      <c r="J162" s="14">
+        <v>0</v>
+      </c>
+      <c r="K162" s="14">
+        <v>0</v>
+      </c>
+      <c r="L162" s="14">
+        <v>0</v>
+      </c>
+      <c r="M162" s="15">
+        <v>0</v>
+      </c>
+      <c r="N162" s="15">
+        <v>0</v>
+      </c>
+      <c r="O162" s="15">
+        <v>0</v>
+      </c>
+      <c r="P162" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="63"/>
+      <c r="R162" s="63"/>
+      <c r="S162" s="63"/>
+      <c r="T162" s="63"/>
+      <c r="U162" s="63"/>
+      <c r="V162" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>Ext 3</v>
+      </c>
+      <c r="W162" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="X162" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y162" s="59">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25">
+      <c r="A163" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" s="31">
+        <v>8</v>
+      </c>
+      <c r="C163" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D163" s="17">
+        <v>120</v>
+      </c>
+      <c r="E163" s="17">
+        <v>40</v>
+      </c>
+      <c r="F163" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G163" s="18">
+        <v>0</v>
+      </c>
+      <c r="H163" s="18">
+        <v>0</v>
+      </c>
+      <c r="I163" s="18">
+        <v>160</v>
+      </c>
+      <c r="J163" s="18">
+        <v>0</v>
+      </c>
+      <c r="K163" s="18">
+        <v>0</v>
+      </c>
+      <c r="L163" s="18">
+        <v>3</v>
+      </c>
+      <c r="M163" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="N163" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="O163" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="P163" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="Q163" s="63"/>
+      <c r="R163" s="63"/>
+      <c r="S163" s="63"/>
+      <c r="T163" s="63"/>
+      <c r="U163" s="63"/>
+      <c r="V163" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC15</v>
+      </c>
+      <c r="W163" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X163" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y163" s="59">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25">
+      <c r="A164" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B164" s="31">
+        <v>8</v>
+      </c>
+      <c r="C164" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D164" s="18">
+        <v>120</v>
+      </c>
+      <c r="E164" s="18">
+        <v>40</v>
+      </c>
+      <c r="F164" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G164" s="18">
+        <v>0</v>
+      </c>
+      <c r="H164" s="18">
+        <v>0</v>
+      </c>
+      <c r="I164" s="18">
+        <v>160</v>
+      </c>
+      <c r="J164" s="18">
+        <v>0</v>
+      </c>
+      <c r="K164" s="18">
+        <v>0</v>
+      </c>
+      <c r="L164" s="18">
+        <v>0</v>
+      </c>
+      <c r="M164" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="N164" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="O164" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="P164" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="Q164" s="63"/>
+      <c r="R164" s="63"/>
+      <c r="S164" s="63"/>
+      <c r="T164" s="63"/>
+      <c r="U164" s="63"/>
+      <c r="V164" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC16</v>
+      </c>
+      <c r="W164" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="X164" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y164" s="59">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/databases/matrizes.xlsx
+++ b/databases/matrizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{C73B6968-9EDC-4DCD-AFB6-2A06D4FF3A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0399A106-A576-4772-8C15-DC7B78B4B2C0}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{C73B6968-9EDC-4DCD-AFB6-2A06D4FF3A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24664855-F43C-4C2E-9BC8-6DF858BD3850}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="91">
   <si>
     <t>UA</t>
   </si>
@@ -267,33 +267,6 @@
     <t>Semi Presencial 40.20 Bacharelado</t>
   </si>
   <si>
-    <t>UC01</t>
-  </si>
-  <si>
-    <t>UC02</t>
-  </si>
-  <si>
-    <t>UC03</t>
-  </si>
-  <si>
-    <t>UC04</t>
-  </si>
-  <si>
-    <t>UC05</t>
-  </si>
-  <si>
-    <t>UC06</t>
-  </si>
-  <si>
-    <t>UC07</t>
-  </si>
-  <si>
-    <t>UC08</t>
-  </si>
-  <si>
-    <t>UC09</t>
-  </si>
-  <si>
     <t>Presencial 70.30</t>
   </si>
   <si>
@@ -331,6 +304,12 @@
   </si>
   <si>
     <t>EAD Atual</t>
+  </si>
+  <si>
+    <t>UC (6-10)</t>
+  </si>
+  <si>
+    <t>Presencial Atual</t>
   </si>
 </sst>
 </file>
@@ -755,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,6 +1088,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1198,8 +1180,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}" name="Table1" displayName="Table1" ref="A1:Y164" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:Y164" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}" name="Table1" displayName="Table1" ref="A1:Y189" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:Y189" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{007A1E24-6F16-4C02-9E6C-A73263605E88}" name="MODELO"/>
     <tableColumn id="2" xr3:uid="{011ED288-C3F7-4C41-833D-E98B1859D0DA}" name="Semestre"/>
@@ -1496,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y164"/>
+  <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R161" sqref="R161"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1598,7 +1580,7 @@
         <v>43</v>
       </c>
       <c r="Y1" s="60" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.6">
@@ -1667,7 +1649,7 @@
         <v>UC1</v>
       </c>
       <c r="W2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X2" s="59" t="s">
         <v>44</v>
@@ -1742,7 +1724,7 @@
         <v>UC2</v>
       </c>
       <c r="W3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X3" s="59" t="s">
         <v>44</v>
@@ -1957,7 +1939,7 @@
         <v>UC3</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X6" s="59" t="s">
         <v>44</v>
@@ -2026,7 +2008,7 @@
         <v>UC4</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X7" s="59" t="s">
         <v>44</v>
@@ -2095,7 +2077,7 @@
         <v>UC5</v>
       </c>
       <c r="W8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X8" s="59" t="s">
         <v>44</v>
@@ -2164,7 +2146,7 @@
         <v>UC6</v>
       </c>
       <c r="W9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X9" s="59" t="s">
         <v>44</v>
@@ -2233,7 +2215,7 @@
         <v>UC7</v>
       </c>
       <c r="W10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X10" s="59" t="s">
         <v>44</v>
@@ -2302,7 +2284,7 @@
         <v>UC8</v>
       </c>
       <c r="W11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X11" s="59" t="s">
         <v>44</v>
@@ -2371,7 +2353,7 @@
         <v>UC9</v>
       </c>
       <c r="W12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X12" s="59" t="s">
         <v>44</v>
@@ -2440,7 +2422,7 @@
         <v>UC10</v>
       </c>
       <c r="W13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X13" s="59" t="s">
         <v>44</v>
@@ -2578,7 +2560,7 @@
         <v>UC11</v>
       </c>
       <c r="W15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X15" s="59" t="s">
         <v>44</v>
@@ -2647,7 +2629,7 @@
         <v>UC12</v>
       </c>
       <c r="W16" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X16" s="59" t="s">
         <v>44</v>
@@ -2716,7 +2698,7 @@
         <v>UC13</v>
       </c>
       <c r="W17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="X17" s="59" t="s">
         <v>44</v>
@@ -2785,7 +2767,7 @@
         <v>UC14</v>
       </c>
       <c r="W18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="X18" s="59" t="s">
         <v>44</v>
@@ -2923,7 +2905,7 @@
         <v>UC15</v>
       </c>
       <c r="W20" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="X20" s="59" t="s">
         <v>44</v>
@@ -2992,7 +2974,7 @@
         <v>UC16</v>
       </c>
       <c r="W21" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="X21" s="59" t="s">
         <v>44</v>
@@ -3050,13 +3032,13 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B23" s="81">
         <v>1</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D23" s="81">
         <v>120</v>
@@ -3105,27 +3087,27 @@
       <c r="U23" s="63"/>
       <c r="V23" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC01</v>
-      </c>
-      <c r="W23" s="63" t="s">
-        <v>14</v>
+        <v>UC1</v>
+      </c>
+      <c r="W23" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="X23" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y23" s="59">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B24" s="81">
         <v>1</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D24" s="81">
         <v>120</v>
@@ -3174,21 +3156,21 @@
       <c r="U24" s="63"/>
       <c r="V24" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC02</v>
-      </c>
-      <c r="W24" s="63" t="s">
-        <v>14</v>
+        <v>UC2</v>
+      </c>
+      <c r="W24" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="X24" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y24" s="59">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B25" s="81">
         <v>1</v>
@@ -3252,12 +3234,12 @@
         <v>44</v>
       </c>
       <c r="Y25" s="59">
-        <v>101</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="15" thickBot="1">
       <c r="A26" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B26" s="81">
         <v>1</v>
@@ -3321,18 +3303,18 @@
         <v>45</v>
       </c>
       <c r="Y26" s="59">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B27" s="83">
         <v>2</v>
       </c>
       <c r="C27" s="93" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D27" s="97">
         <v>120</v>
@@ -3381,27 +3363,27 @@
       <c r="U27" s="63"/>
       <c r="V27" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC03</v>
-      </c>
-      <c r="W27" s="63" t="s">
-        <v>14</v>
+        <v>UC3</v>
+      </c>
+      <c r="W27" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="X27" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y27" s="59">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15" thickBot="1">
       <c r="A28" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B28" s="83">
         <v>2</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D28" s="105">
         <v>120</v>
@@ -3450,21 +3432,21 @@
       <c r="U28" s="63"/>
       <c r="V28" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC04</v>
-      </c>
-      <c r="W28" s="63" t="s">
-        <v>14</v>
+        <v>UC4</v>
+      </c>
+      <c r="W28" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="X28" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y28" s="59">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B29" s="83">
         <v>2</v>
@@ -3526,18 +3508,18 @@
         <v>45</v>
       </c>
       <c r="Y29" s="59">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B30" s="47">
         <v>3</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D30" s="47">
         <v>120</v>
@@ -3586,27 +3568,27 @@
       <c r="U30" s="63"/>
       <c r="V30" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC05</v>
-      </c>
-      <c r="W30" s="63" t="s">
-        <v>14</v>
+        <v>UC5</v>
+      </c>
+      <c r="W30" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="X30" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y30" s="59">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B31" s="47">
         <v>3</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D31" s="47">
         <v>120</v>
@@ -3655,27 +3637,27 @@
       <c r="U31" s="63"/>
       <c r="V31" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC06</v>
-      </c>
-      <c r="W31" s="63" t="s">
-        <v>14</v>
+        <v>UC6</v>
+      </c>
+      <c r="W31" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="X31" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y31" s="59">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B32" s="85">
         <v>4</v>
       </c>
       <c r="C32" s="85" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="D32" s="85">
         <v>120</v>
@@ -3724,27 +3706,27 @@
       <c r="U32" s="63"/>
       <c r="V32" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC07</v>
-      </c>
-      <c r="W32" s="63" t="s">
-        <v>14</v>
+        <v>UC7</v>
+      </c>
+      <c r="W32" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="X32" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y32" s="59">
-        <v>108</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B33" s="85">
         <v>4</v>
       </c>
       <c r="C33" s="85" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="D33" s="85">
         <v>120</v>
@@ -3793,27 +3775,27 @@
       <c r="U33" s="63"/>
       <c r="V33" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC08</v>
-      </c>
-      <c r="W33" s="63" t="s">
-        <v>14</v>
+        <v>UC8</v>
+      </c>
+      <c r="W33" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="X33" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y33" s="59">
-        <v>109</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="15" thickBot="1">
       <c r="A34" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B34" s="55">
         <v>5</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D34" s="56">
         <v>120</v>
@@ -3862,21 +3844,21 @@
       <c r="U34" s="63"/>
       <c r="V34" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC09</v>
-      </c>
-      <c r="W34" s="63" t="s">
-        <v>14</v>
+        <v>UC9</v>
+      </c>
+      <c r="W34" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="X34" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y34" s="59">
-        <v>110</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="15" thickBot="1">
       <c r="A35" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B35" s="55">
         <v>5</v>
@@ -3933,19 +3915,19 @@
         <f>Table1[[#This Row],[UC]]</f>
         <v>UC10</v>
       </c>
-      <c r="W35" s="63" t="s">
-        <v>14</v>
+      <c r="W35" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="X35" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y35" s="59">
-        <v>111</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B36" s="55">
         <v>5</v>
@@ -4007,12 +3989,12 @@
         <v>45</v>
       </c>
       <c r="Y36" s="59">
-        <v>112</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B37" s="87">
         <v>6</v>
@@ -4069,19 +4051,19 @@
         <f>Table1[[#This Row],[UC]]</f>
         <v>UC11</v>
       </c>
-      <c r="W37" s="63" t="s">
-        <v>14</v>
+      <c r="W37" s="59" t="s">
+        <v>89</v>
       </c>
       <c r="X37" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y37" s="59">
-        <v>113</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B38" s="87">
         <v>6</v>
@@ -4138,19 +4120,19 @@
         <f>Table1[[#This Row],[UC]]</f>
         <v>UC12</v>
       </c>
-      <c r="W38" s="63" t="s">
-        <v>14</v>
+      <c r="W38" s="59" t="s">
+        <v>89</v>
       </c>
       <c r="X38" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y38" s="59">
-        <v>114</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B39" s="89">
         <v>7</v>
@@ -4207,19 +4189,19 @@
         <f>Table1[[#This Row],[UC]]</f>
         <v>UC13</v>
       </c>
-      <c r="W39" s="63" t="s">
-        <v>14</v>
+      <c r="W39" s="59" t="s">
+        <v>89</v>
       </c>
       <c r="X39" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y39" s="59">
-        <v>115</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B40" s="89">
         <v>7</v>
@@ -4276,19 +4258,19 @@
         <f>Table1[[#This Row],[UC]]</f>
         <v>UC14</v>
       </c>
-      <c r="W40" s="63" t="s">
-        <v>14</v>
+      <c r="W40" s="59" t="s">
+        <v>89</v>
       </c>
       <c r="X40" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y40" s="59">
-        <v>116</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B41" s="85">
         <v>8</v>
@@ -4345,19 +4327,19 @@
         <f>Table1[[#This Row],[UC]]</f>
         <v>UC15</v>
       </c>
-      <c r="W41" s="63" t="s">
-        <v>14</v>
+      <c r="W41" s="59" t="s">
+        <v>89</v>
       </c>
       <c r="X41" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y41" s="59">
-        <v>117</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="15.6" customHeight="1">
       <c r="A42" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B42" s="85">
         <v>8</v>
@@ -4414,19 +4396,19 @@
         <f>Table1[[#This Row],[UC]]</f>
         <v>UC16</v>
       </c>
-      <c r="W42" s="63" t="s">
-        <v>14</v>
+      <c r="W42" s="59" t="s">
+        <v>89</v>
       </c>
       <c r="X42" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y42" s="59">
-        <v>118</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.6" customHeight="1">
       <c r="A43" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B43" s="75">
         <v>9</v>
@@ -4483,19 +4465,19 @@
         <f>Table1[[#This Row],[UC]]</f>
         <v>UC17</v>
       </c>
-      <c r="W43" s="63" t="s">
-        <v>14</v>
+      <c r="W43" s="59" t="s">
+        <v>89</v>
       </c>
       <c r="X43" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y43" s="59">
-        <v>119</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B44" s="75">
         <v>9</v>
@@ -4559,12 +4541,12 @@
         <v>44</v>
       </c>
       <c r="Y44" s="59">
-        <v>120</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B45" s="91">
         <v>10</v>
@@ -4621,19 +4603,19 @@
         <f>Table1[[#This Row],[UC]]</f>
         <v>UC18</v>
       </c>
-      <c r="W45" s="63" t="s">
-        <v>14</v>
+      <c r="W45" s="59" t="s">
+        <v>89</v>
       </c>
       <c r="X45" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y45" s="59">
-        <v>121</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B46" s="91">
         <v>10</v>
@@ -4699,12 +4681,12 @@
         <v>45</v>
       </c>
       <c r="Y46" s="59">
-        <v>122</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B47" s="91">
         <v>10</v>
@@ -4752,7 +4734,7 @@
         <v>44</v>
       </c>
       <c r="Y47" s="59">
-        <v>123</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -4823,13 +4805,13 @@
         <v>UC1</v>
       </c>
       <c r="W48" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X48" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y48" s="59">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -4900,13 +4882,13 @@
         <v>UC2</v>
       </c>
       <c r="W49" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X49" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y49" s="59">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -4981,7 +4963,7 @@
         <v>44</v>
       </c>
       <c r="Y50" s="59">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -5052,7 +5034,7 @@
         <v>45</v>
       </c>
       <c r="Y51" s="59">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -5123,13 +5105,13 @@
         <v>UC3</v>
       </c>
       <c r="W52" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X52" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y52" s="59">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -5200,13 +5182,13 @@
         <v>UC4</v>
       </c>
       <c r="W53" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X53" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y53" s="59">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -5277,13 +5259,13 @@
         <v>UC5</v>
       </c>
       <c r="W54" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X54" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y54" s="59">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -5354,13 +5336,13 @@
         <v>UC6</v>
       </c>
       <c r="W55" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X55" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y55" s="59">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -5431,13 +5413,13 @@
         <v>UC7</v>
       </c>
       <c r="W56" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X56" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y56" s="59">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -5508,13 +5490,13 @@
         <v>UC8</v>
       </c>
       <c r="W57" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X57" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y57" s="59">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -5585,13 +5567,13 @@
         <v>UC9</v>
       </c>
       <c r="W58" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X58" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y58" s="59">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -5662,13 +5644,13 @@
         <v>UC10</v>
       </c>
       <c r="W59" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X59" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y59" s="59">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -5739,7 +5721,7 @@
         <v>45</v>
       </c>
       <c r="Y60" s="59">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -5810,13 +5792,13 @@
         <v>UC11</v>
       </c>
       <c r="W61" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X61" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y61" s="59">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -5887,13 +5869,13 @@
         <v>UC12</v>
       </c>
       <c r="W62" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X62" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y62" s="59">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -5964,13 +5946,13 @@
         <v>UC13</v>
       </c>
       <c r="W63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X63" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y63" s="59">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -6041,13 +6023,13 @@
         <v>UC14</v>
       </c>
       <c r="W64" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X64" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y64" s="59">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -6118,7 +6100,7 @@
         <v>45</v>
       </c>
       <c r="Y65" s="59">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -6189,13 +6171,13 @@
         <v>UC15</v>
       </c>
       <c r="W66" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X66" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y66" s="59">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -6266,13 +6248,13 @@
         <v>UC16</v>
       </c>
       <c r="W67" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X67" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y67" s="59">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -6319,7 +6301,7 @@
         <v>45</v>
       </c>
       <c r="Y68" s="59">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -6382,13 +6364,13 @@
         <v>UC1</v>
       </c>
       <c r="W69" s="59" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X69" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y69" s="59">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -6451,13 +6433,13 @@
         <v>UC2- E</v>
       </c>
       <c r="W70" s="59" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X70" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y70" s="59">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -6526,7 +6508,7 @@
         <v>44</v>
       </c>
       <c r="Y71" s="59">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -6595,7 +6577,7 @@
         <v>44</v>
       </c>
       <c r="Y72" s="59">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -6664,7 +6646,7 @@
         <v>45</v>
       </c>
       <c r="Y73" s="59">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -6727,13 +6709,13 @@
         <v>UC3- E</v>
       </c>
       <c r="W74" s="59" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X74" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y74" s="59">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -6802,7 +6784,7 @@
         <v>44</v>
       </c>
       <c r="Y75" s="59">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -6865,13 +6847,13 @@
         <v>UC4-E</v>
       </c>
       <c r="W76" s="59" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X76" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y76" s="59">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -6940,7 +6922,7 @@
         <v>44</v>
       </c>
       <c r="Y77" s="59">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -7003,13 +6985,13 @@
         <v>UC5-E</v>
       </c>
       <c r="W78" s="59" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X78" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y78" s="59">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -7072,13 +7054,13 @@
         <v>UC6-E</v>
       </c>
       <c r="W79" s="59" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X79" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y79" s="59">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -7147,7 +7129,7 @@
         <v>44</v>
       </c>
       <c r="Y80" s="59">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -7210,13 +7192,13 @@
         <v>UC7-E</v>
       </c>
       <c r="W81" s="59" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X81" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y81" s="59">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -7279,13 +7261,13 @@
         <v>UC8-E</v>
       </c>
       <c r="W82" s="59" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X82" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y82" s="59">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -7354,7 +7336,7 @@
         <v>45</v>
       </c>
       <c r="Y83" s="59">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -7417,13 +7399,13 @@
         <v>UC9</v>
       </c>
       <c r="W84" s="59" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X84" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y84" s="59">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -7492,7 +7474,7 @@
         <v>44</v>
       </c>
       <c r="Y85" s="59">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -7555,13 +7537,13 @@
         <v>UC10-E</v>
       </c>
       <c r="W86" s="59" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X86" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y86" s="59">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -7624,13 +7606,13 @@
         <v>UC11</v>
       </c>
       <c r="W87" s="59" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X87" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y87" s="59">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -7693,13 +7675,13 @@
         <v>PPI 1</v>
       </c>
       <c r="W88" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="X88" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y88" s="59">
         <v>87</v>
-      </c>
-      <c r="X88" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y88" s="59">
-        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -7762,13 +7744,13 @@
         <v>UC12</v>
       </c>
       <c r="W89" s="59" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X89" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y89" s="59">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -7837,7 +7819,7 @@
         <v>44</v>
       </c>
       <c r="Y90" s="59">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -7900,13 +7882,13 @@
         <v>PPI 2</v>
       </c>
       <c r="W91" s="63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="X91" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y91" s="59">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="15" thickBot="1">
@@ -7969,13 +7951,13 @@
         <v>UC13</v>
       </c>
       <c r="W92" s="59" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X92" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y92" s="59">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="15" thickBot="1">
@@ -8044,7 +8026,7 @@
         <v>44</v>
       </c>
       <c r="Y93" s="59">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -8113,7 +8095,7 @@
         <v>45</v>
       </c>
       <c r="Y94" s="59">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -8176,13 +8158,13 @@
         <v>UC14</v>
       </c>
       <c r="W95" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="X95" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y95" s="59">
         <v>94</v>
-      </c>
-      <c r="X95" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y95" s="59">
-        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -8251,7 +8233,7 @@
         <v>44</v>
       </c>
       <c r="Y96" s="59">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -8298,7 +8280,7 @@
         <v>45</v>
       </c>
       <c r="Y97" s="59">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:25">
@@ -8361,13 +8343,13 @@
         <v>UC1</v>
       </c>
       <c r="W98" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X98" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y98" s="59">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -8430,13 +8412,13 @@
         <v>UC2</v>
       </c>
       <c r="W99" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X99" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y99" s="59">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -8505,7 +8487,7 @@
         <v>44</v>
       </c>
       <c r="Y100" s="59">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:25">
@@ -8574,7 +8556,7 @@
         <v>45</v>
       </c>
       <c r="Y101" s="59">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -8637,13 +8619,13 @@
         <v>UC3</v>
       </c>
       <c r="W102" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X102" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y102" s="59">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:25">
@@ -8706,13 +8688,13 @@
         <v>UC4</v>
       </c>
       <c r="W103" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X103" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y103" s="59">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:25">
@@ -8781,7 +8763,7 @@
         <v>45</v>
       </c>
       <c r="Y104" s="59">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:25">
@@ -8844,13 +8826,13 @@
         <v>UC5</v>
       </c>
       <c r="W105" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X105" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y105" s="59">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:25">
@@ -8913,13 +8895,13 @@
         <v>UC6</v>
       </c>
       <c r="W106" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X106" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y106" s="59">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:25">
@@ -8982,13 +8964,13 @@
         <v>UC7</v>
       </c>
       <c r="W107" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X107" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y107" s="59">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -9051,13 +9033,13 @@
         <v>UC8</v>
       </c>
       <c r="W108" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X108" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y108" s="59">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:25">
@@ -9120,13 +9102,13 @@
         <v>UC9</v>
       </c>
       <c r="W109" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X109" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y109" s="59">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:25">
@@ -9189,13 +9171,13 @@
         <v>UC10</v>
       </c>
       <c r="W110" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X110" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y110" s="59">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:25">
@@ -9264,7 +9246,7 @@
         <v>45</v>
       </c>
       <c r="Y111" s="59">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:25">
@@ -9327,13 +9309,13 @@
         <v>UC11</v>
       </c>
       <c r="W112" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X112" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y112" s="59">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -9396,13 +9378,13 @@
         <v>UC12</v>
       </c>
       <c r="W113" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X113" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y113" s="59">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:25">
@@ -9465,13 +9447,13 @@
         <v>UC13</v>
       </c>
       <c r="W114" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="X114" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y114" s="59">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:25">
@@ -9534,13 +9516,13 @@
         <v>UC14</v>
       </c>
       <c r="W115" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="X115" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y115" s="59">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:25">
@@ -9603,13 +9585,13 @@
         <v>UC15</v>
       </c>
       <c r="W116" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="X116" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y116" s="59">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:25">
@@ -9672,13 +9654,13 @@
         <v>UC16</v>
       </c>
       <c r="W117" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="X117" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y117" s="59">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:25">
@@ -9741,13 +9723,13 @@
         <v>UC17</v>
       </c>
       <c r="W118" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="X118" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y118" s="59">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:25">
@@ -9810,13 +9792,13 @@
         <v>UC18</v>
       </c>
       <c r="W119" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="X119" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y119" s="59">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:25">
@@ -9879,13 +9861,13 @@
         <v>UC19</v>
       </c>
       <c r="W120" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="X120" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y120" s="59">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -9954,7 +9936,7 @@
         <v>44</v>
       </c>
       <c r="Y121" s="59">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:25">
@@ -10017,13 +9999,13 @@
         <v>UC20</v>
       </c>
       <c r="W122" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="X122" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y122" s="59">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:25">
@@ -10086,13 +10068,13 @@
         <v>UC21</v>
       </c>
       <c r="W123" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="X123" s="59" t="s">
         <v>44</v>
       </c>
       <c r="Y123" s="59">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:25">
@@ -10163,12 +10145,12 @@
         <v>45</v>
       </c>
       <c r="Y124" s="59">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B125" s="42">
         <v>1</v>
@@ -10234,18 +10216,18 @@
         <v>UC1</v>
       </c>
       <c r="W125" s="63" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X125" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y125" s="59">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B126" s="42">
         <v>1</v>
@@ -10311,18 +10293,18 @@
         <v>UC2</v>
       </c>
       <c r="W126" s="63" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X126" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y126" s="59">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B127" s="42">
         <v>1</v>
@@ -10392,12 +10374,12 @@
         <v>44</v>
       </c>
       <c r="Y127" s="59">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B128" s="42">
         <v>1</v>
@@ -10463,12 +10445,12 @@
         <v>45</v>
       </c>
       <c r="Y128" s="59">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B129" s="45">
         <v>2</v>
@@ -10534,18 +10516,18 @@
         <v>UC3</v>
       </c>
       <c r="W129" s="63" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X129" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y129" s="59">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B130" s="45">
         <v>2</v>
@@ -10611,18 +10593,18 @@
         <v>UC4</v>
       </c>
       <c r="W130" s="63" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X130" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y130" s="59">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B131" s="47">
         <v>3</v>
@@ -10688,18 +10670,18 @@
         <v>UC5</v>
       </c>
       <c r="W131" s="63" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X131" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y131" s="59">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B132" s="47">
         <v>3</v>
@@ -10765,18 +10747,18 @@
         <v>UC6</v>
       </c>
       <c r="W132" s="63" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X132" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y132" s="59">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B133" s="49">
         <v>4</v>
@@ -10842,18 +10824,18 @@
         <v>UC7</v>
       </c>
       <c r="W133" s="63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X133" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y133" s="59">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B134" s="49">
         <v>4</v>
@@ -10919,18 +10901,18 @@
         <v>UC8</v>
       </c>
       <c r="W134" s="63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X134" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y134" s="59">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B135" s="51">
         <v>5</v>
@@ -10996,18 +10978,18 @@
         <v>UC9</v>
       </c>
       <c r="W135" s="63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X135" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y135" s="59">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B136" s="51">
         <v>5</v>
@@ -11073,18 +11055,18 @@
         <v>UC10</v>
       </c>
       <c r="W136" s="63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X136" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y136" s="59">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B137" s="51">
         <v>5</v>
@@ -11150,12 +11132,12 @@
         <v>45</v>
       </c>
       <c r="Y137" s="59">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:25">
       <c r="A138" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B138" s="53">
         <v>6</v>
@@ -11221,18 +11203,18 @@
         <v>UC11</v>
       </c>
       <c r="W138" s="63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X138" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y138" s="59">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B139" s="53">
         <v>6</v>
@@ -11298,18 +11280,18 @@
         <v>UC12</v>
       </c>
       <c r="W139" s="63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X139" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y139" s="59">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:25">
       <c r="A140" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B140" s="55">
         <v>7</v>
@@ -11375,18 +11357,18 @@
         <v>UC13</v>
       </c>
       <c r="W140" s="63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X140" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y140" s="59">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B141" s="55">
         <v>7</v>
@@ -11452,18 +11434,18 @@
         <v>UC14</v>
       </c>
       <c r="W141" s="63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X141" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y141" s="59">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B142" s="55">
         <v>8</v>
@@ -11529,12 +11511,12 @@
         <v>45</v>
       </c>
       <c r="Y142" s="59">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B143" s="55">
         <v>8</v>
@@ -11600,18 +11582,18 @@
         <v>UC15</v>
       </c>
       <c r="W143" s="63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X143" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y143" s="59">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B144" s="55">
         <v>8</v>
@@ -11677,18 +11659,18 @@
         <v>UC16</v>
       </c>
       <c r="W144" s="63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="X144" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y144" s="59">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:25" ht="15.6">
       <c r="A145" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B145" s="24">
         <v>1</v>
@@ -11752,18 +11734,18 @@
         <v>UC1</v>
       </c>
       <c r="W145" s="63" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X145" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y145" s="59">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:25">
       <c r="A146" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B146" s="24">
         <v>1</v>
@@ -11827,18 +11809,18 @@
         <v>UC2</v>
       </c>
       <c r="W146" s="63" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="X146" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Y146" s="59">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:25">
       <c r="A147" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B147" s="24">
         <v>1</v>
@@ -11908,12 +11890,12 @@
         <v>44</v>
       </c>
       <c r="Y147" s="59">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:25">
       <c r="A148" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B148" s="24">
         <v>1</v>
@@ -11979,12 +11961,12 @@
         <v>45</v>
       </c>
       <c r="Y148" s="59">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:25">
       <c r="A149" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B149" s="25">
         <v>2</v>
@@ -12048,12 +12030,12 @@
         <v>44</v>
       </c>
       <c r="Y149" s="59">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:25">
       <c r="A150" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B150" s="25">
         <v>2</v>
@@ -12117,12 +12099,12 @@
         <v>44</v>
       </c>
       <c r="Y150" s="59">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:25">
       <c r="A151" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B151" s="26">
         <v>3</v>
@@ -12186,12 +12168,12 @@
         <v>44</v>
       </c>
       <c r="Y151" s="59">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:25">
       <c r="A152" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B152" s="26">
         <v>3</v>
@@ -12255,12 +12237,12 @@
         <v>44</v>
       </c>
       <c r="Y152" s="59">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:25">
       <c r="A153" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B153" s="27">
         <v>4</v>
@@ -12324,12 +12306,12 @@
         <v>44</v>
       </c>
       <c r="Y153" s="59">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:25">
       <c r="A154" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B154" s="27">
         <v>4</v>
@@ -12393,12 +12375,12 @@
         <v>44</v>
       </c>
       <c r="Y154" s="59">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:25">
       <c r="A155" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B155" s="28">
         <v>5</v>
@@ -12462,12 +12444,12 @@
         <v>44</v>
       </c>
       <c r="Y155" s="59">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:25">
       <c r="A156" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B156" s="28">
         <v>5</v>
@@ -12531,12 +12513,12 @@
         <v>44</v>
       </c>
       <c r="Y156" s="59">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:25">
       <c r="A157" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B157" s="28">
         <v>5</v>
@@ -12600,12 +12582,12 @@
         <v>45</v>
       </c>
       <c r="Y157" s="59">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:25">
       <c r="A158" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B158" s="29">
         <v>6</v>
@@ -12669,12 +12651,12 @@
         <v>44</v>
       </c>
       <c r="Y158" s="59">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:25">
       <c r="A159" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B159" s="29">
         <v>6</v>
@@ -12738,12 +12720,12 @@
         <v>44</v>
       </c>
       <c r="Y159" s="59">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:25">
       <c r="A160" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B160" s="30">
         <v>7</v>
@@ -12807,12 +12789,12 @@
         <v>44</v>
       </c>
       <c r="Y160" s="59">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:25">
       <c r="A161" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B161" s="30">
         <v>7</v>
@@ -12876,12 +12858,12 @@
         <v>44</v>
       </c>
       <c r="Y161" s="59">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:25">
       <c r="A162" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B162" s="30">
         <v>7</v>
@@ -12945,12 +12927,12 @@
         <v>45</v>
       </c>
       <c r="Y162" s="59">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:25">
       <c r="A163" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B163" s="31">
         <v>8</v>
@@ -13014,12 +12996,12 @@
         <v>44</v>
       </c>
       <c r="Y163" s="59">
-        <v>137</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="59" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B164" s="31">
         <v>8</v>
@@ -13083,7 +13065,1714 @@
         <v>44</v>
       </c>
       <c r="Y164" s="59">
-        <v>138</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25">
+      <c r="A165" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B165" s="81">
+        <v>1</v>
+      </c>
+      <c r="C165" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="81">
+        <v>120</v>
+      </c>
+      <c r="E165" s="81">
+        <v>40</v>
+      </c>
+      <c r="F165" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G165" s="81">
+        <v>120</v>
+      </c>
+      <c r="H165" s="81">
+        <v>0</v>
+      </c>
+      <c r="I165" s="81">
+        <v>40</v>
+      </c>
+      <c r="J165" s="81">
+        <v>0</v>
+      </c>
+      <c r="K165" s="81">
+        <v>0</v>
+      </c>
+      <c r="L165" s="81">
+        <v>0</v>
+      </c>
+      <c r="M165" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="N165" s="82">
+        <v>0.6</v>
+      </c>
+      <c r="O165" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="P165" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="Q165" s="63"/>
+      <c r="R165" s="63"/>
+      <c r="S165" s="63"/>
+      <c r="T165" s="63"/>
+      <c r="U165" s="63"/>
+      <c r="V165" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC1</v>
+      </c>
+      <c r="W165" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="X165" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y165" s="59">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25">
+      <c r="A166" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B166" s="81">
+        <v>1</v>
+      </c>
+      <c r="C166" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="81">
+        <v>120</v>
+      </c>
+      <c r="E166" s="81">
+        <v>40</v>
+      </c>
+      <c r="F166" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G166" s="81">
+        <v>120</v>
+      </c>
+      <c r="H166" s="81">
+        <v>0</v>
+      </c>
+      <c r="I166" s="81">
+        <v>40</v>
+      </c>
+      <c r="J166" s="81">
+        <v>0</v>
+      </c>
+      <c r="K166" s="81">
+        <v>0</v>
+      </c>
+      <c r="L166" s="81">
+        <v>0</v>
+      </c>
+      <c r="M166" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="N166" s="82">
+        <v>0.6</v>
+      </c>
+      <c r="O166" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="P166" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="Q166" s="63"/>
+      <c r="R166" s="63"/>
+      <c r="S166" s="63"/>
+      <c r="T166" s="63"/>
+      <c r="U166" s="63"/>
+      <c r="V166" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC2</v>
+      </c>
+      <c r="W166" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="X166" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y166" s="59">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25">
+      <c r="A167" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B167" s="81">
+        <v>1</v>
+      </c>
+      <c r="C167" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="81">
+        <v>40</v>
+      </c>
+      <c r="E167" s="81">
+        <v>20</v>
+      </c>
+      <c r="F167" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>60</v>
+      </c>
+      <c r="G167" s="81">
+        <v>0</v>
+      </c>
+      <c r="H167" s="81">
+        <v>0</v>
+      </c>
+      <c r="I167" s="81">
+        <v>20</v>
+      </c>
+      <c r="J167" s="81">
+        <v>0</v>
+      </c>
+      <c r="K167" s="81">
+        <v>40</v>
+      </c>
+      <c r="L167" s="81">
+        <v>0</v>
+      </c>
+      <c r="M167" s="81">
+        <v>0</v>
+      </c>
+      <c r="N167" s="81">
+        <v>0</v>
+      </c>
+      <c r="O167" s="81">
+        <v>0</v>
+      </c>
+      <c r="P167" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="63"/>
+      <c r="R167" s="63"/>
+      <c r="S167" s="63"/>
+      <c r="T167" s="63"/>
+      <c r="U167" s="63"/>
+      <c r="V167" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>AFP</v>
+      </c>
+      <c r="W167" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="X167" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y167" s="59">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" ht="15" thickBot="1">
+      <c r="A168" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B168" s="81">
+        <v>1</v>
+      </c>
+      <c r="C168" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="D168" s="104">
+        <v>20</v>
+      </c>
+      <c r="E168" s="104">
+        <v>0</v>
+      </c>
+      <c r="F168" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>20</v>
+      </c>
+      <c r="G168" s="81">
+        <v>0</v>
+      </c>
+      <c r="H168" s="81">
+        <v>20</v>
+      </c>
+      <c r="I168" s="81">
+        <v>0</v>
+      </c>
+      <c r="J168" s="81">
+        <v>0</v>
+      </c>
+      <c r="K168" s="81">
+        <v>0</v>
+      </c>
+      <c r="L168" s="81">
+        <v>0</v>
+      </c>
+      <c r="M168" s="81">
+        <v>0</v>
+      </c>
+      <c r="N168" s="81">
+        <v>0</v>
+      </c>
+      <c r="O168" s="81">
+        <v>0</v>
+      </c>
+      <c r="P168" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="63"/>
+      <c r="R168" s="63"/>
+      <c r="S168" s="63"/>
+      <c r="T168" s="63"/>
+      <c r="U168" s="63"/>
+      <c r="V168" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>Ext 1</v>
+      </c>
+      <c r="W168" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="X168" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y168" s="59">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25">
+      <c r="A169" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B169" s="83">
+        <v>2</v>
+      </c>
+      <c r="C169" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="97">
+        <v>120</v>
+      </c>
+      <c r="E169" s="110">
+        <v>40</v>
+      </c>
+      <c r="F169" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G169" s="83">
+        <v>120</v>
+      </c>
+      <c r="H169" s="83">
+        <v>0</v>
+      </c>
+      <c r="I169" s="83">
+        <v>40</v>
+      </c>
+      <c r="J169" s="83">
+        <v>0</v>
+      </c>
+      <c r="K169" s="83">
+        <v>0</v>
+      </c>
+      <c r="L169" s="83">
+        <v>0</v>
+      </c>
+      <c r="M169" s="84">
+        <v>0.2</v>
+      </c>
+      <c r="N169" s="84">
+        <v>0.6</v>
+      </c>
+      <c r="O169" s="84">
+        <v>0.2</v>
+      </c>
+      <c r="P169" s="84">
+        <v>0.2</v>
+      </c>
+      <c r="Q169" s="63"/>
+      <c r="R169" s="63"/>
+      <c r="S169" s="63"/>
+      <c r="T169" s="63"/>
+      <c r="U169" s="63"/>
+      <c r="V169" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC3</v>
+      </c>
+      <c r="W169" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="X169" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y169" s="59">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" ht="15" thickBot="1">
+      <c r="A170" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B170" s="83">
+        <v>2</v>
+      </c>
+      <c r="C170" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="105">
+        <v>120</v>
+      </c>
+      <c r="E170" s="113">
+        <v>40</v>
+      </c>
+      <c r="F170" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G170" s="83">
+        <v>120</v>
+      </c>
+      <c r="H170" s="83">
+        <v>0</v>
+      </c>
+      <c r="I170" s="83">
+        <v>40</v>
+      </c>
+      <c r="J170" s="83">
+        <v>0</v>
+      </c>
+      <c r="K170" s="83">
+        <v>0</v>
+      </c>
+      <c r="L170" s="83">
+        <v>0</v>
+      </c>
+      <c r="M170" s="84">
+        <v>0.2</v>
+      </c>
+      <c r="N170" s="84">
+        <v>0.6</v>
+      </c>
+      <c r="O170" s="84">
+        <v>0.2</v>
+      </c>
+      <c r="P170" s="84">
+        <v>0.2</v>
+      </c>
+      <c r="Q170" s="63"/>
+      <c r="R170" s="63"/>
+      <c r="S170" s="63"/>
+      <c r="T170" s="63"/>
+      <c r="U170" s="63"/>
+      <c r="V170" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC4</v>
+      </c>
+      <c r="W170" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="X170" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y170" s="59">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25">
+      <c r="A171" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B171" s="83">
+        <v>2</v>
+      </c>
+      <c r="C171" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D171" s="98">
+        <v>200</v>
+      </c>
+      <c r="E171" s="98"/>
+      <c r="F171" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>200</v>
+      </c>
+      <c r="G171" s="83">
+        <v>0</v>
+      </c>
+      <c r="H171" s="83">
+        <v>200</v>
+      </c>
+      <c r="I171" s="83">
+        <v>0</v>
+      </c>
+      <c r="J171" s="83">
+        <v>0</v>
+      </c>
+      <c r="K171" s="83">
+        <v>0</v>
+      </c>
+      <c r="L171" s="83">
+        <v>0</v>
+      </c>
+      <c r="M171" s="83">
+        <v>0</v>
+      </c>
+      <c r="N171" s="83">
+        <v>0</v>
+      </c>
+      <c r="O171" s="83">
+        <v>0</v>
+      </c>
+      <c r="P171" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="63"/>
+      <c r="R171" s="63"/>
+      <c r="S171" s="63"/>
+      <c r="T171" s="63"/>
+      <c r="U171" s="63"/>
+      <c r="V171" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>Ext 2</v>
+      </c>
+      <c r="W171" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="X171" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y171" s="59">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25">
+      <c r="A172" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B172" s="47">
+        <v>3</v>
+      </c>
+      <c r="C172" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="47">
+        <v>120</v>
+      </c>
+      <c r="E172" s="47">
+        <v>40</v>
+      </c>
+      <c r="F172" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G172" s="47">
+        <v>120</v>
+      </c>
+      <c r="H172" s="47">
+        <v>0</v>
+      </c>
+      <c r="I172" s="47">
+        <v>40</v>
+      </c>
+      <c r="J172" s="47">
+        <v>0</v>
+      </c>
+      <c r="K172" s="47">
+        <v>0</v>
+      </c>
+      <c r="L172" s="47">
+        <v>0</v>
+      </c>
+      <c r="M172" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="N172" s="48">
+        <v>0.6</v>
+      </c>
+      <c r="O172" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="P172" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="Q172" s="63"/>
+      <c r="R172" s="63"/>
+      <c r="S172" s="63"/>
+      <c r="T172" s="63"/>
+      <c r="U172" s="63"/>
+      <c r="V172" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC5</v>
+      </c>
+      <c r="W172" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="X172" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y172" s="59">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25">
+      <c r="A173" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B173" s="47">
+        <v>3</v>
+      </c>
+      <c r="C173" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173" s="47">
+        <v>120</v>
+      </c>
+      <c r="E173" s="47">
+        <v>40</v>
+      </c>
+      <c r="F173" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G173" s="47">
+        <v>120</v>
+      </c>
+      <c r="H173" s="47">
+        <v>0</v>
+      </c>
+      <c r="I173" s="47">
+        <v>40</v>
+      </c>
+      <c r="J173" s="47">
+        <v>0</v>
+      </c>
+      <c r="K173" s="47">
+        <v>0</v>
+      </c>
+      <c r="L173" s="47">
+        <v>0</v>
+      </c>
+      <c r="M173" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="N173" s="48">
+        <v>0.6</v>
+      </c>
+      <c r="O173" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="P173" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="Q173" s="63"/>
+      <c r="R173" s="63"/>
+      <c r="S173" s="63"/>
+      <c r="T173" s="63"/>
+      <c r="U173" s="63"/>
+      <c r="V173" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC6</v>
+      </c>
+      <c r="W173" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="X173" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y173" s="59">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25">
+      <c r="A174" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B174" s="85">
+        <v>4</v>
+      </c>
+      <c r="C174" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D174" s="85">
+        <v>120</v>
+      </c>
+      <c r="E174" s="85">
+        <v>40</v>
+      </c>
+      <c r="F174" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G174" s="85">
+        <v>120</v>
+      </c>
+      <c r="H174" s="85">
+        <v>0</v>
+      </c>
+      <c r="I174" s="85">
+        <v>40</v>
+      </c>
+      <c r="J174" s="85">
+        <v>0</v>
+      </c>
+      <c r="K174" s="85">
+        <v>0</v>
+      </c>
+      <c r="L174" s="85">
+        <v>0</v>
+      </c>
+      <c r="M174" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="N174" s="86">
+        <v>0.6</v>
+      </c>
+      <c r="O174" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="P174" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="Q174" s="63"/>
+      <c r="R174" s="63"/>
+      <c r="S174" s="63"/>
+      <c r="T174" s="63"/>
+      <c r="U174" s="63"/>
+      <c r="V174" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC7</v>
+      </c>
+      <c r="W174" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="X174" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y174" s="59">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25">
+      <c r="A175" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B175" s="85">
+        <v>4</v>
+      </c>
+      <c r="C175" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" s="85">
+        <v>120</v>
+      </c>
+      <c r="E175" s="85">
+        <v>40</v>
+      </c>
+      <c r="F175" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G175" s="85">
+        <v>120</v>
+      </c>
+      <c r="H175" s="85">
+        <v>0</v>
+      </c>
+      <c r="I175" s="85">
+        <v>40</v>
+      </c>
+      <c r="J175" s="85">
+        <v>0</v>
+      </c>
+      <c r="K175" s="85">
+        <v>0</v>
+      </c>
+      <c r="L175" s="85">
+        <v>0</v>
+      </c>
+      <c r="M175" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="N175" s="86">
+        <v>0.6</v>
+      </c>
+      <c r="O175" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="P175" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="Q175" s="63"/>
+      <c r="R175" s="63"/>
+      <c r="S175" s="63"/>
+      <c r="T175" s="63"/>
+      <c r="U175" s="63"/>
+      <c r="V175" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC8</v>
+      </c>
+      <c r="W175" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="X175" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y175" s="59">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" ht="15" thickBot="1">
+      <c r="A176" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B176" s="55">
+        <v>5</v>
+      </c>
+      <c r="C176" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176" s="56">
+        <v>120</v>
+      </c>
+      <c r="E176" s="56">
+        <v>40</v>
+      </c>
+      <c r="F176" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G176" s="55">
+        <v>120</v>
+      </c>
+      <c r="H176" s="55">
+        <v>0</v>
+      </c>
+      <c r="I176" s="55">
+        <v>40</v>
+      </c>
+      <c r="J176" s="55">
+        <v>0</v>
+      </c>
+      <c r="K176" s="55">
+        <v>0</v>
+      </c>
+      <c r="L176" s="55">
+        <v>0</v>
+      </c>
+      <c r="M176" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="N176" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="O176" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="P176" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="Q176" s="63"/>
+      <c r="R176" s="63"/>
+      <c r="S176" s="63"/>
+      <c r="T176" s="63"/>
+      <c r="U176" s="63"/>
+      <c r="V176" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC9</v>
+      </c>
+      <c r="W176" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="X176" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y176" s="59">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" ht="15" thickBot="1">
+      <c r="A177" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" s="55">
+        <v>5</v>
+      </c>
+      <c r="C177" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="99">
+        <v>120</v>
+      </c>
+      <c r="E177" s="111">
+        <v>40</v>
+      </c>
+      <c r="F177" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G177" s="55">
+        <v>120</v>
+      </c>
+      <c r="H177" s="55">
+        <v>0</v>
+      </c>
+      <c r="I177" s="55">
+        <v>40</v>
+      </c>
+      <c r="J177" s="55">
+        <v>0</v>
+      </c>
+      <c r="K177" s="55">
+        <v>0</v>
+      </c>
+      <c r="L177" s="55">
+        <v>0</v>
+      </c>
+      <c r="M177" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="N177" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="O177" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="P177" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="Q177" s="63"/>
+      <c r="R177" s="63"/>
+      <c r="S177" s="63"/>
+      <c r="T177" s="63"/>
+      <c r="U177" s="63"/>
+      <c r="V177" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC10</v>
+      </c>
+      <c r="W177" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="X177" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y177" s="59">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25">
+      <c r="A178" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B178" s="55">
+        <v>5</v>
+      </c>
+      <c r="C178" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D178" s="106">
+        <v>200</v>
+      </c>
+      <c r="E178" s="106"/>
+      <c r="F178" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>220</v>
+      </c>
+      <c r="G178" s="55">
+        <v>0</v>
+      </c>
+      <c r="H178" s="55">
+        <v>220</v>
+      </c>
+      <c r="I178" s="55">
+        <v>0</v>
+      </c>
+      <c r="J178" s="55">
+        <v>0</v>
+      </c>
+      <c r="K178" s="55">
+        <v>0</v>
+      </c>
+      <c r="L178" s="55">
+        <v>0</v>
+      </c>
+      <c r="M178" s="55">
+        <v>0</v>
+      </c>
+      <c r="N178" s="55">
+        <v>0</v>
+      </c>
+      <c r="O178" s="55">
+        <v>0</v>
+      </c>
+      <c r="P178" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="63"/>
+      <c r="R178" s="63"/>
+      <c r="S178" s="63"/>
+      <c r="T178" s="63"/>
+      <c r="U178" s="63"/>
+      <c r="V178" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>Ext 3</v>
+      </c>
+      <c r="W178" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="X178" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y178" s="59">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25">
+      <c r="A179" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B179" s="87">
+        <v>6</v>
+      </c>
+      <c r="C179" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" s="87">
+        <v>120</v>
+      </c>
+      <c r="E179" s="87">
+        <v>40</v>
+      </c>
+      <c r="F179" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G179" s="87">
+        <v>60</v>
+      </c>
+      <c r="H179" s="87">
+        <v>0</v>
+      </c>
+      <c r="I179" s="87">
+        <v>40</v>
+      </c>
+      <c r="J179" s="87">
+        <v>0</v>
+      </c>
+      <c r="K179" s="87">
+        <v>60</v>
+      </c>
+      <c r="L179" s="87">
+        <v>0</v>
+      </c>
+      <c r="M179" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="N179" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="O179" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="P179" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="Q179" s="63"/>
+      <c r="R179" s="63"/>
+      <c r="S179" s="63"/>
+      <c r="T179" s="63"/>
+      <c r="U179" s="63"/>
+      <c r="V179" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC11</v>
+      </c>
+      <c r="W179" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="X179" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y179" s="59">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25">
+      <c r="A180" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B180" s="87">
+        <v>6</v>
+      </c>
+      <c r="C180" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="107">
+        <v>120</v>
+      </c>
+      <c r="E180" s="107">
+        <v>40</v>
+      </c>
+      <c r="F180" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G180" s="87">
+        <v>60</v>
+      </c>
+      <c r="H180" s="87">
+        <v>0</v>
+      </c>
+      <c r="I180" s="87">
+        <v>40</v>
+      </c>
+      <c r="J180" s="87">
+        <v>0</v>
+      </c>
+      <c r="K180" s="87">
+        <v>60</v>
+      </c>
+      <c r="L180" s="87">
+        <v>0</v>
+      </c>
+      <c r="M180" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="N180" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="O180" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="P180" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="Q180" s="63"/>
+      <c r="R180" s="63"/>
+      <c r="S180" s="63"/>
+      <c r="T180" s="63"/>
+      <c r="U180" s="63"/>
+      <c r="V180" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC12</v>
+      </c>
+      <c r="W180" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="X180" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y180" s="59">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25">
+      <c r="A181" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B181" s="89">
+        <v>7</v>
+      </c>
+      <c r="C181" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" s="100">
+        <v>120</v>
+      </c>
+      <c r="E181" s="100">
+        <v>40</v>
+      </c>
+      <c r="F181" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G181" s="89">
+        <v>60</v>
+      </c>
+      <c r="H181" s="89">
+        <v>0</v>
+      </c>
+      <c r="I181" s="89">
+        <v>40</v>
+      </c>
+      <c r="J181" s="89">
+        <v>0</v>
+      </c>
+      <c r="K181" s="89">
+        <v>60</v>
+      </c>
+      <c r="L181" s="89">
+        <v>0</v>
+      </c>
+      <c r="M181" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="N181" s="90">
+        <v>0.6</v>
+      </c>
+      <c r="O181" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="P181" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="Q181" s="63"/>
+      <c r="R181" s="63"/>
+      <c r="S181" s="63"/>
+      <c r="T181" s="63"/>
+      <c r="U181" s="63"/>
+      <c r="V181" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC13</v>
+      </c>
+      <c r="W181" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="X181" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y181" s="59">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25">
+      <c r="A182" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B182" s="89">
+        <v>7</v>
+      </c>
+      <c r="C182" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="D182" s="100">
+        <v>120</v>
+      </c>
+      <c r="E182" s="100">
+        <v>40</v>
+      </c>
+      <c r="F182" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G182" s="89">
+        <v>60</v>
+      </c>
+      <c r="H182" s="89">
+        <v>0</v>
+      </c>
+      <c r="I182" s="89">
+        <v>40</v>
+      </c>
+      <c r="J182" s="89">
+        <v>0</v>
+      </c>
+      <c r="K182" s="89">
+        <v>60</v>
+      </c>
+      <c r="L182" s="89">
+        <v>0</v>
+      </c>
+      <c r="M182" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="N182" s="90">
+        <v>0.6</v>
+      </c>
+      <c r="O182" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="P182" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="Q182" s="63"/>
+      <c r="R182" s="63"/>
+      <c r="S182" s="63"/>
+      <c r="T182" s="63"/>
+      <c r="U182" s="63"/>
+      <c r="V182" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC14</v>
+      </c>
+      <c r="W182" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="X182" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y182" s="59">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25">
+      <c r="A183" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B183" s="85">
+        <v>8</v>
+      </c>
+      <c r="C183" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D183" s="101">
+        <v>120</v>
+      </c>
+      <c r="E183" s="101">
+        <v>40</v>
+      </c>
+      <c r="F183" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G183" s="85">
+        <v>60</v>
+      </c>
+      <c r="H183" s="85">
+        <v>0</v>
+      </c>
+      <c r="I183" s="85">
+        <v>40</v>
+      </c>
+      <c r="J183" s="85">
+        <v>0</v>
+      </c>
+      <c r="K183" s="85">
+        <v>60</v>
+      </c>
+      <c r="L183" s="85">
+        <v>0</v>
+      </c>
+      <c r="M183" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="N183" s="86">
+        <v>0.6</v>
+      </c>
+      <c r="O183" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="P183" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="Q183" s="63"/>
+      <c r="R183" s="63"/>
+      <c r="S183" s="63"/>
+      <c r="T183" s="63"/>
+      <c r="U183" s="63"/>
+      <c r="V183" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC15</v>
+      </c>
+      <c r="W183" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="X183" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y183" s="59">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25">
+      <c r="A184" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B184" s="85">
+        <v>8</v>
+      </c>
+      <c r="C184" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D184" s="101">
+        <v>60</v>
+      </c>
+      <c r="E184" s="101">
+        <v>0</v>
+      </c>
+      <c r="F184" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>60</v>
+      </c>
+      <c r="G184" s="85">
+        <v>0</v>
+      </c>
+      <c r="H184" s="85">
+        <v>60</v>
+      </c>
+      <c r="I184" s="85">
+        <v>0</v>
+      </c>
+      <c r="J184" s="85">
+        <v>0</v>
+      </c>
+      <c r="K184" s="85">
+        <v>0</v>
+      </c>
+      <c r="L184" s="85">
+        <v>0</v>
+      </c>
+      <c r="M184" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="N184" s="86">
+        <v>0.6</v>
+      </c>
+      <c r="O184" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="P184" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="Q184" s="63"/>
+      <c r="R184" s="63"/>
+      <c r="S184" s="63"/>
+      <c r="T184" s="63"/>
+      <c r="U184" s="63"/>
+      <c r="V184" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC16</v>
+      </c>
+      <c r="W184" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="X184" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y184" s="59">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25">
+      <c r="A185" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B185" s="75">
+        <v>9</v>
+      </c>
+      <c r="C185" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" s="103">
+        <v>120</v>
+      </c>
+      <c r="E185" s="103">
+        <v>40</v>
+      </c>
+      <c r="F185" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G185" s="75">
+        <v>60</v>
+      </c>
+      <c r="H185" s="75">
+        <v>0</v>
+      </c>
+      <c r="I185" s="75">
+        <v>40</v>
+      </c>
+      <c r="J185" s="75">
+        <v>0</v>
+      </c>
+      <c r="K185" s="75">
+        <v>60</v>
+      </c>
+      <c r="L185" s="75">
+        <v>0</v>
+      </c>
+      <c r="M185" s="76">
+        <v>0.2</v>
+      </c>
+      <c r="N185" s="76">
+        <v>0.6</v>
+      </c>
+      <c r="O185" s="76">
+        <v>0.2</v>
+      </c>
+      <c r="P185" s="76">
+        <v>0.2</v>
+      </c>
+      <c r="Q185" s="63"/>
+      <c r="R185" s="63"/>
+      <c r="S185" s="63"/>
+      <c r="T185" s="63"/>
+      <c r="U185" s="63"/>
+      <c r="V185" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC17</v>
+      </c>
+      <c r="W185" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="X185" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y185" s="59">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25">
+      <c r="A186" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B186" s="75">
+        <v>9</v>
+      </c>
+      <c r="C186" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D186" s="75">
+        <v>20</v>
+      </c>
+      <c r="E186" s="75">
+        <v>0</v>
+      </c>
+      <c r="F186" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>420</v>
+      </c>
+      <c r="G186" s="75">
+        <v>20</v>
+      </c>
+      <c r="H186" s="75">
+        <v>400</v>
+      </c>
+      <c r="I186" s="75">
+        <v>0</v>
+      </c>
+      <c r="J186" s="75">
+        <v>0</v>
+      </c>
+      <c r="K186" s="75">
+        <v>0</v>
+      </c>
+      <c r="L186" s="75">
+        <v>0</v>
+      </c>
+      <c r="M186" s="76">
+        <v>0</v>
+      </c>
+      <c r="N186" s="76">
+        <v>0</v>
+      </c>
+      <c r="O186" s="76">
+        <v>0</v>
+      </c>
+      <c r="P186" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="63"/>
+      <c r="R186" s="63"/>
+      <c r="S186" s="63"/>
+      <c r="T186" s="63"/>
+      <c r="U186" s="63"/>
+      <c r="V186" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>ESTÁGIO 1</v>
+      </c>
+      <c r="W186" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="X186" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y186" s="59">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25">
+      <c r="A187" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B187" s="91">
+        <v>10</v>
+      </c>
+      <c r="C187" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D187" s="91">
+        <v>120</v>
+      </c>
+      <c r="E187" s="91">
+        <v>40</v>
+      </c>
+      <c r="F187" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>160</v>
+      </c>
+      <c r="G187" s="91">
+        <v>60</v>
+      </c>
+      <c r="H187" s="91">
+        <v>0</v>
+      </c>
+      <c r="I187" s="91">
+        <v>40</v>
+      </c>
+      <c r="J187" s="91">
+        <v>0</v>
+      </c>
+      <c r="K187" s="91">
+        <v>60</v>
+      </c>
+      <c r="L187" s="91">
+        <v>0</v>
+      </c>
+      <c r="M187" s="92">
+        <v>0.2</v>
+      </c>
+      <c r="N187" s="92">
+        <v>0.6</v>
+      </c>
+      <c r="O187" s="92">
+        <v>0.2</v>
+      </c>
+      <c r="P187" s="92">
+        <v>0.2</v>
+      </c>
+      <c r="Q187" s="63"/>
+      <c r="R187" s="63"/>
+      <c r="S187" s="63"/>
+      <c r="T187" s="63"/>
+      <c r="U187" s="63"/>
+      <c r="V187" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>UC18</v>
+      </c>
+      <c r="W187" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="X187" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y187" s="59">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25">
+      <c r="A188" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B188" s="91">
+        <v>10</v>
+      </c>
+      <c r="C188" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="D188" s="91">
+        <v>20</v>
+      </c>
+      <c r="E188" s="91">
+        <v>20</v>
+      </c>
+      <c r="F188" s="42">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>40</v>
+      </c>
+      <c r="G188" s="91">
+        <v>20</v>
+      </c>
+      <c r="H188" s="91">
+        <v>20</v>
+      </c>
+      <c r="I188" s="91">
+        <v>0</v>
+      </c>
+      <c r="J188" s="91">
+        <v>0</v>
+      </c>
+      <c r="K188" s="91">
+        <v>0</v>
+      </c>
+      <c r="L188" s="91">
+        <v>0</v>
+      </c>
+      <c r="M188" s="92">
+        <v>0</v>
+      </c>
+      <c r="N188" s="92">
+        <v>0</v>
+      </c>
+      <c r="O188" s="92">
+        <v>0</v>
+      </c>
+      <c r="P188" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="63"/>
+      <c r="R188" s="63"/>
+      <c r="S188" s="63"/>
+      <c r="T188" s="63">
+        <v>20</v>
+      </c>
+      <c r="U188" s="63"/>
+      <c r="V188" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>TCC</v>
+      </c>
+      <c r="W188" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="X188" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y188" s="59">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25">
+      <c r="A189" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B189" s="119">
+        <v>10</v>
+      </c>
+      <c r="C189" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="D189" s="119">
+        <v>20</v>
+      </c>
+      <c r="E189" s="119">
+        <v>0</v>
+      </c>
+      <c r="F189" s="44">
+        <f>Table1[[#This Row],[PRESENCIALIDADE]]+Table1[[#This Row],[AMBIENTE PROFISSIONAL]]+Table1[[#This Row],[ASSÍNCRONA]]+Table1[[#This Row],[SÍNCRONA MED]]+Table1[[#This Row],[SÍNCRONA]]</f>
+        <v>420</v>
+      </c>
+      <c r="G189" s="119">
+        <v>20</v>
+      </c>
+      <c r="H189" s="119">
+        <v>400</v>
+      </c>
+      <c r="I189" s="119"/>
+      <c r="J189" s="119"/>
+      <c r="K189" s="119"/>
+      <c r="L189" s="119"/>
+      <c r="M189" s="119"/>
+      <c r="N189" s="119"/>
+      <c r="O189" s="119"/>
+      <c r="P189" s="119"/>
+      <c r="Q189" s="63"/>
+      <c r="R189" s="63"/>
+      <c r="S189" s="63"/>
+      <c r="T189" s="63"/>
+      <c r="U189" s="63"/>
+      <c r="V189" s="64" t="str">
+        <f>Table1[[#This Row],[UC]]</f>
+        <v>ESTÁGIO 2</v>
+      </c>
+      <c r="W189" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="X189" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y189" s="59">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/databases/matrizes.xlsx
+++ b/databases/matrizes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{C73B6968-9EDC-4DCD-AFB6-2A06D4FF3A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24664855-F43C-4C2E-9BC8-6DF858BD3850}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9F843D-5DDE-4213-A7D8-C79EDF11CBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,7 +1181,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}" name="Table1" displayName="Table1" ref="A1:Y189" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:Y189" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}"/>
+  <autoFilter ref="A1:Y189" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Presencial 70.30"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{007A1E24-6F16-4C02-9E6C-A73263605E88}" name="MODELO"/>
     <tableColumn id="2" xr3:uid="{011ED288-C3F7-4C41-833D-E98B1859D0DA}" name="Semestre"/>
@@ -1480,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1583,7 +1589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.6">
+    <row r="2" spans="1:25" ht="15.6" hidden="1">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" hidden="1">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" hidden="1">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" hidden="1">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" hidden="1">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" hidden="1">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" hidden="1">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" hidden="1">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" hidden="1">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" hidden="1">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" hidden="1">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" hidden="1">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2431,7 +2437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" hidden="1">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2500,7 +2506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" hidden="1">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2569,7 +2575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" hidden="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" hidden="1">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" hidden="1">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" hidden="1">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2845,7 +2851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" hidden="1">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" hidden="1">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" hidden="1">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" hidden="1">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -4814,7 +4820,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" hidden="1">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -4891,7 +4897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" hidden="1">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -4966,7 +4972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" hidden="1">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -5037,7 +5043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" hidden="1">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -5114,7 +5120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" hidden="1">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5191,7 +5197,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" hidden="1">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -5268,7 +5274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" hidden="1">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -5345,7 +5351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" hidden="1">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -5422,7 +5428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" hidden="1">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -5499,7 +5505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" hidden="1">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5576,7 +5582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" hidden="1">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -5653,7 +5659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" hidden="1">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -5724,7 +5730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" hidden="1">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" hidden="1">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -5878,7 +5884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" hidden="1">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" hidden="1">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -6032,7 +6038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" hidden="1">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -6103,7 +6109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" hidden="1">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -6180,7 +6186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" hidden="1">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -6257,7 +6263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" hidden="1">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -6304,7 +6310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" hidden="1">
       <c r="A69" s="62" t="s">
         <v>67</v>
       </c>
@@ -6373,7 +6379,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" hidden="1">
       <c r="A70" s="62" t="s">
         <v>67</v>
       </c>
@@ -6442,7 +6448,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" hidden="1">
       <c r="A71" s="62" t="s">
         <v>67</v>
       </c>
@@ -6511,7 +6517,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" hidden="1">
       <c r="A72" s="62" t="s">
         <v>67</v>
       </c>
@@ -6580,7 +6586,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" hidden="1">
       <c r="A73" s="62" t="s">
         <v>67</v>
       </c>
@@ -6649,7 +6655,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" hidden="1">
       <c r="A74" s="62" t="s">
         <v>67</v>
       </c>
@@ -6718,7 +6724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" hidden="1">
       <c r="A75" s="62" t="s">
         <v>67</v>
       </c>
@@ -6787,7 +6793,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" hidden="1">
       <c r="A76" s="62" t="s">
         <v>67</v>
       </c>
@@ -6856,7 +6862,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" hidden="1">
       <c r="A77" s="62" t="s">
         <v>67</v>
       </c>
@@ -6925,7 +6931,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" hidden="1">
       <c r="A78" s="62" t="s">
         <v>67</v>
       </c>
@@ -6994,7 +7000,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" hidden="1">
       <c r="A79" s="62" t="s">
         <v>67</v>
       </c>
@@ -7063,7 +7069,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" hidden="1">
       <c r="A80" s="62" t="s">
         <v>67</v>
       </c>
@@ -7132,7 +7138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" hidden="1">
       <c r="A81" s="62" t="s">
         <v>67</v>
       </c>
@@ -7201,7 +7207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" hidden="1">
       <c r="A82" s="62" t="s">
         <v>67</v>
       </c>
@@ -7270,7 +7276,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" hidden="1">
       <c r="A83" s="62" t="s">
         <v>67</v>
       </c>
@@ -7339,7 +7345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" hidden="1">
       <c r="A84" s="62" t="s">
         <v>67</v>
       </c>
@@ -7408,7 +7414,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" hidden="1">
       <c r="A85" s="62" t="s">
         <v>67</v>
       </c>
@@ -7477,7 +7483,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" hidden="1">
       <c r="A86" s="62" t="s">
         <v>67</v>
       </c>
@@ -7546,7 +7552,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" hidden="1">
       <c r="A87" s="62" t="s">
         <v>67</v>
       </c>
@@ -7615,7 +7621,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" hidden="1">
       <c r="A88" s="62" t="s">
         <v>67</v>
       </c>
@@ -7684,7 +7690,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" hidden="1">
       <c r="A89" s="62" t="s">
         <v>67</v>
       </c>
@@ -7753,7 +7759,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" hidden="1">
       <c r="A90" s="62" t="s">
         <v>67</v>
       </c>
@@ -7822,7 +7828,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" hidden="1">
       <c r="A91" s="62" t="s">
         <v>67</v>
       </c>
@@ -7891,7 +7897,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="15" thickBot="1">
+    <row r="92" spans="1:25" hidden="1">
       <c r="A92" s="62" t="s">
         <v>67</v>
       </c>
@@ -7960,7 +7966,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15" thickBot="1">
+    <row r="93" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A93" s="62" t="s">
         <v>67</v>
       </c>
@@ -8029,7 +8035,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" hidden="1">
       <c r="A94" s="62" t="s">
         <v>67</v>
       </c>
@@ -8098,7 +8104,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" hidden="1">
       <c r="A95" s="62" t="s">
         <v>67</v>
       </c>
@@ -8167,7 +8173,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" hidden="1">
       <c r="A96" s="62" t="s">
         <v>67</v>
       </c>
@@ -8236,7 +8242,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" hidden="1">
       <c r="A97" s="62" t="s">
         <v>67</v>
       </c>
@@ -8283,7 +8289,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" hidden="1">
       <c r="A98" s="62" t="s">
         <v>75</v>
       </c>
@@ -8352,7 +8358,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" hidden="1">
       <c r="A99" s="62" t="s">
         <v>75</v>
       </c>
@@ -8421,7 +8427,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" hidden="1">
       <c r="A100" s="62" t="s">
         <v>75</v>
       </c>
@@ -8490,7 +8496,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" hidden="1">
       <c r="A101" s="62" t="s">
         <v>75</v>
       </c>
@@ -8559,7 +8565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" hidden="1">
       <c r="A102" s="62" t="s">
         <v>75</v>
       </c>
@@ -8628,7 +8634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" hidden="1">
       <c r="A103" s="62" t="s">
         <v>75</v>
       </c>
@@ -8697,7 +8703,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" hidden="1">
       <c r="A104" s="62" t="s">
         <v>75</v>
       </c>
@@ -8766,7 +8772,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" hidden="1">
       <c r="A105" s="62" t="s">
         <v>75</v>
       </c>
@@ -8835,7 +8841,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" hidden="1">
       <c r="A106" s="62" t="s">
         <v>75</v>
       </c>
@@ -8904,7 +8910,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" hidden="1">
       <c r="A107" s="62" t="s">
         <v>75</v>
       </c>
@@ -8973,7 +8979,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" hidden="1">
       <c r="A108" s="62" t="s">
         <v>75</v>
       </c>
@@ -9042,7 +9048,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" hidden="1">
       <c r="A109" s="62" t="s">
         <v>75</v>
       </c>
@@ -9111,7 +9117,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" hidden="1">
       <c r="A110" s="62" t="s">
         <v>75</v>
       </c>
@@ -9180,7 +9186,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" hidden="1">
       <c r="A111" s="62" t="s">
         <v>75</v>
       </c>
@@ -9249,7 +9255,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" hidden="1">
       <c r="A112" s="62" t="s">
         <v>75</v>
       </c>
@@ -9318,7 +9324,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" hidden="1">
       <c r="A113" s="62" t="s">
         <v>75</v>
       </c>
@@ -9387,7 +9393,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" hidden="1">
       <c r="A114" s="62" t="s">
         <v>75</v>
       </c>
@@ -9456,7 +9462,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" hidden="1">
       <c r="A115" s="62" t="s">
         <v>75</v>
       </c>
@@ -9525,7 +9531,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" hidden="1">
       <c r="A116" s="62" t="s">
         <v>75</v>
       </c>
@@ -9594,7 +9600,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" hidden="1">
       <c r="A117" s="62" t="s">
         <v>75</v>
       </c>
@@ -9663,7 +9669,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" hidden="1">
       <c r="A118" s="62" t="s">
         <v>75</v>
       </c>
@@ -9732,7 +9738,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" hidden="1">
       <c r="A119" s="62" t="s">
         <v>75</v>
       </c>
@@ -9801,7 +9807,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" hidden="1">
       <c r="A120" s="62" t="s">
         <v>75</v>
       </c>
@@ -9870,7 +9876,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" hidden="1">
       <c r="A121" s="62" t="s">
         <v>75</v>
       </c>
@@ -9939,7 +9945,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" hidden="1">
       <c r="A122" s="62" t="s">
         <v>75</v>
       </c>
@@ -10008,7 +10014,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" hidden="1">
       <c r="A123" s="62" t="s">
         <v>75</v>
       </c>
@@ -10077,7 +10083,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" hidden="1">
       <c r="A124" s="62" t="s">
         <v>75</v>
       </c>
@@ -10148,7 +10154,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" hidden="1">
       <c r="A125" s="118" t="s">
         <v>87</v>
       </c>
@@ -10225,7 +10231,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" hidden="1">
       <c r="A126" s="118" t="s">
         <v>87</v>
       </c>
@@ -10302,7 +10308,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" hidden="1">
       <c r="A127" s="118" t="s">
         <v>87</v>
       </c>
@@ -10377,7 +10383,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" hidden="1">
       <c r="A128" s="118" t="s">
         <v>87</v>
       </c>
@@ -10448,7 +10454,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" hidden="1">
       <c r="A129" s="118" t="s">
         <v>87</v>
       </c>
@@ -10525,7 +10531,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" hidden="1">
       <c r="A130" s="118" t="s">
         <v>87</v>
       </c>
@@ -10602,7 +10608,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" hidden="1">
       <c r="A131" s="118" t="s">
         <v>87</v>
       </c>
@@ -10679,7 +10685,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" hidden="1">
       <c r="A132" s="118" t="s">
         <v>87</v>
       </c>
@@ -10756,7 +10762,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" hidden="1">
       <c r="A133" s="118" t="s">
         <v>87</v>
       </c>
@@ -10833,7 +10839,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" hidden="1">
       <c r="A134" s="118" t="s">
         <v>87</v>
       </c>
@@ -10910,7 +10916,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" hidden="1">
       <c r="A135" s="118" t="s">
         <v>87</v>
       </c>
@@ -10987,7 +10993,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" hidden="1">
       <c r="A136" s="118" t="s">
         <v>87</v>
       </c>
@@ -11064,7 +11070,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" hidden="1">
       <c r="A137" s="118" t="s">
         <v>87</v>
       </c>
@@ -11135,7 +11141,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" hidden="1">
       <c r="A138" s="118" t="s">
         <v>87</v>
       </c>
@@ -11212,7 +11218,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" hidden="1">
       <c r="A139" s="118" t="s">
         <v>87</v>
       </c>
@@ -11289,7 +11295,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" hidden="1">
       <c r="A140" s="118" t="s">
         <v>87</v>
       </c>
@@ -11366,7 +11372,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" hidden="1">
       <c r="A141" s="118" t="s">
         <v>87</v>
       </c>
@@ -11443,7 +11449,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" hidden="1">
       <c r="A142" s="118" t="s">
         <v>87</v>
       </c>
@@ -11514,7 +11520,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" hidden="1">
       <c r="A143" s="118" t="s">
         <v>87</v>
       </c>
@@ -11591,7 +11597,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" hidden="1">
       <c r="A144" s="118" t="s">
         <v>87</v>
       </c>
@@ -11668,7 +11674,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="15.6">
+    <row r="145" spans="1:25" ht="15.6" hidden="1">
       <c r="A145" s="59" t="s">
         <v>88</v>
       </c>
@@ -11734,7 +11740,7 @@
         <v>UC1</v>
       </c>
       <c r="W145" s="63" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="X145" s="63" t="s">
         <v>44</v>
@@ -11743,7 +11749,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:25">
+    <row r="146" spans="1:25" hidden="1">
       <c r="A146" s="59" t="s">
         <v>88</v>
       </c>
@@ -11809,7 +11815,7 @@
         <v>UC2</v>
       </c>
       <c r="W146" s="63" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="X146" s="63" t="s">
         <v>44</v>
@@ -11818,7 +11824,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:25">
+    <row r="147" spans="1:25" hidden="1">
       <c r="A147" s="59" t="s">
         <v>88</v>
       </c>
@@ -11893,7 +11899,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:25">
+    <row r="148" spans="1:25" hidden="1">
       <c r="A148" s="59" t="s">
         <v>88</v>
       </c>
@@ -11964,7 +11970,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:25">
+    <row r="149" spans="1:25" hidden="1">
       <c r="A149" s="59" t="s">
         <v>88</v>
       </c>
@@ -12033,7 +12039,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:25">
+    <row r="150" spans="1:25" hidden="1">
       <c r="A150" s="59" t="s">
         <v>88</v>
       </c>
@@ -12102,7 +12108,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:25">
+    <row r="151" spans="1:25" hidden="1">
       <c r="A151" s="59" t="s">
         <v>88</v>
       </c>
@@ -12171,7 +12177,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:25">
+    <row r="152" spans="1:25" hidden="1">
       <c r="A152" s="59" t="s">
         <v>88</v>
       </c>
@@ -12240,7 +12246,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" hidden="1">
       <c r="A153" s="59" t="s">
         <v>88</v>
       </c>
@@ -12309,7 +12315,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:25">
+    <row r="154" spans="1:25" hidden="1">
       <c r="A154" s="59" t="s">
         <v>88</v>
       </c>
@@ -12378,7 +12384,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:25">
+    <row r="155" spans="1:25" hidden="1">
       <c r="A155" s="59" t="s">
         <v>88</v>
       </c>
@@ -12447,7 +12453,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:25">
+    <row r="156" spans="1:25" hidden="1">
       <c r="A156" s="59" t="s">
         <v>88</v>
       </c>
@@ -12516,7 +12522,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:25">
+    <row r="157" spans="1:25" hidden="1">
       <c r="A157" s="59" t="s">
         <v>88</v>
       </c>
@@ -12585,7 +12591,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:25">
+    <row r="158" spans="1:25" hidden="1">
       <c r="A158" s="59" t="s">
         <v>88</v>
       </c>
@@ -12654,7 +12660,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:25">
+    <row r="159" spans="1:25" hidden="1">
       <c r="A159" s="59" t="s">
         <v>88</v>
       </c>
@@ -12723,7 +12729,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:25">
+    <row r="160" spans="1:25" hidden="1">
       <c r="A160" s="59" t="s">
         <v>88</v>
       </c>
@@ -12792,7 +12798,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:25" hidden="1">
       <c r="A161" s="59" t="s">
         <v>88</v>
       </c>
@@ -12861,7 +12867,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:25" hidden="1">
       <c r="A162" s="59" t="s">
         <v>88</v>
       </c>
@@ -12930,7 +12936,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:25" hidden="1">
       <c r="A163" s="59" t="s">
         <v>88</v>
       </c>
@@ -12999,7 +13005,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:25" hidden="1">
       <c r="A164" s="59" t="s">
         <v>88</v>
       </c>
@@ -13068,7 +13074,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:25" hidden="1">
       <c r="A165" s="62" t="s">
         <v>90</v>
       </c>
@@ -13137,7 +13143,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:25" hidden="1">
       <c r="A166" s="62" t="s">
         <v>90</v>
       </c>
@@ -13206,7 +13212,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:25" hidden="1">
       <c r="A167" s="62" t="s">
         <v>90</v>
       </c>
@@ -13275,7 +13281,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="15" thickBot="1">
+    <row r="168" spans="1:25" hidden="1">
       <c r="A168" s="62" t="s">
         <v>90</v>
       </c>
@@ -13344,7 +13350,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" hidden="1">
       <c r="A169" s="62" t="s">
         <v>90</v>
       </c>
@@ -13413,7 +13419,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="15" thickBot="1">
+    <row r="170" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A170" s="62" t="s">
         <v>90</v>
       </c>
@@ -13482,7 +13488,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:25" hidden="1">
       <c r="A171" s="62" t="s">
         <v>90</v>
       </c>
@@ -13549,7 +13555,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:25">
+    <row r="172" spans="1:25" hidden="1">
       <c r="A172" s="62" t="s">
         <v>90</v>
       </c>
@@ -13618,7 +13624,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" hidden="1">
       <c r="A173" s="62" t="s">
         <v>90</v>
       </c>
@@ -13687,7 +13693,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" hidden="1">
       <c r="A174" s="62" t="s">
         <v>90</v>
       </c>
@@ -13756,7 +13762,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:25" hidden="1">
       <c r="A175" s="62" t="s">
         <v>90</v>
       </c>
@@ -13825,7 +13831,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="15" thickBot="1">
+    <row r="176" spans="1:25" hidden="1">
       <c r="A176" s="62" t="s">
         <v>90</v>
       </c>
@@ -13894,7 +13900,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="15" thickBot="1">
+    <row r="177" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A177" s="62" t="s">
         <v>90</v>
       </c>
@@ -13963,7 +13969,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:25">
+    <row r="178" spans="1:25" hidden="1">
       <c r="A178" s="62" t="s">
         <v>90</v>
       </c>
@@ -14030,7 +14036,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:25">
+    <row r="179" spans="1:25" hidden="1">
       <c r="A179" s="62" t="s">
         <v>90</v>
       </c>
@@ -14099,7 +14105,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:25">
+    <row r="180" spans="1:25" hidden="1">
       <c r="A180" s="62" t="s">
         <v>90</v>
       </c>
@@ -14168,7 +14174,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:25">
+    <row r="181" spans="1:25" hidden="1">
       <c r="A181" s="62" t="s">
         <v>90</v>
       </c>
@@ -14237,7 +14243,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:25">
+    <row r="182" spans="1:25" hidden="1">
       <c r="A182" s="62" t="s">
         <v>90</v>
       </c>
@@ -14306,7 +14312,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:25">
+    <row r="183" spans="1:25" hidden="1">
       <c r="A183" s="62" t="s">
         <v>90</v>
       </c>
@@ -14375,7 +14381,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:25">
+    <row r="184" spans="1:25" hidden="1">
       <c r="A184" s="62" t="s">
         <v>90</v>
       </c>
@@ -14444,7 +14450,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:25">
+    <row r="185" spans="1:25" hidden="1">
       <c r="A185" s="62" t="s">
         <v>90</v>
       </c>
@@ -14513,7 +14519,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:25">
+    <row r="186" spans="1:25" hidden="1">
       <c r="A186" s="62" t="s">
         <v>90</v>
       </c>
@@ -14582,7 +14588,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:25">
+    <row r="187" spans="1:25" hidden="1">
       <c r="A187" s="62" t="s">
         <v>90</v>
       </c>
@@ -14651,7 +14657,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:25">
+    <row r="188" spans="1:25" hidden="1">
       <c r="A188" s="62" t="s">
         <v>90</v>
       </c>
@@ -14722,7 +14728,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:25">
+    <row r="189" spans="1:25" hidden="1">
       <c r="A189" s="62" t="s">
         <v>90</v>
       </c>

--- a/databases/matrizes.xlsx
+++ b/databases/matrizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9F843D-5DDE-4213-A7D8-C79EDF11CBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CA3A2B-AD45-4031-B186-A748090EA498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,7 +1184,7 @@
   <autoFilter ref="A1:Y189" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Presencial 70.30"/>
+        <filter val="Semi Presencial 30.20 Bacharelado"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1486,9 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:X25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -3036,7 +3034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" hidden="1">
       <c r="A23" s="62" t="s">
         <v>76</v>
       </c>
@@ -3105,7 +3103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" hidden="1">
       <c r="A24" s="62" t="s">
         <v>76</v>
       </c>
@@ -3174,7 +3172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" hidden="1">
       <c r="A25" s="62" t="s">
         <v>76</v>
       </c>
@@ -3243,7 +3241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15" thickBot="1">
+    <row r="26" spans="1:25" hidden="1">
       <c r="A26" s="62" t="s">
         <v>76</v>
       </c>
@@ -3312,7 +3310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" hidden="1">
       <c r="A27" s="62" t="s">
         <v>76</v>
       </c>
@@ -3381,7 +3379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" thickBot="1">
+    <row r="28" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A28" s="62" t="s">
         <v>76</v>
       </c>
@@ -3450,7 +3448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" hidden="1">
       <c r="A29" s="62" t="s">
         <v>76</v>
       </c>
@@ -3517,7 +3515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" hidden="1">
       <c r="A30" s="62" t="s">
         <v>76</v>
       </c>
@@ -3586,7 +3584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" hidden="1">
       <c r="A31" s="62" t="s">
         <v>76</v>
       </c>
@@ -3655,7 +3653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" hidden="1">
       <c r="A32" s="62" t="s">
         <v>76</v>
       </c>
@@ -3724,7 +3722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" hidden="1">
       <c r="A33" s="62" t="s">
         <v>76</v>
       </c>
@@ -3793,7 +3791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15" thickBot="1">
+    <row r="34" spans="1:25" hidden="1">
       <c r="A34" s="62" t="s">
         <v>76</v>
       </c>
@@ -3862,7 +3860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15" thickBot="1">
+    <row r="35" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A35" s="62" t="s">
         <v>76</v>
       </c>
@@ -3931,7 +3929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" hidden="1">
       <c r="A36" s="62" t="s">
         <v>76</v>
       </c>
@@ -3998,7 +3996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" hidden="1">
       <c r="A37" s="62" t="s">
         <v>76</v>
       </c>
@@ -4067,7 +4065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" hidden="1">
       <c r="A38" s="62" t="s">
         <v>76</v>
       </c>
@@ -4136,7 +4134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" hidden="1">
       <c r="A39" s="62" t="s">
         <v>76</v>
       </c>
@@ -4205,7 +4203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" hidden="1">
       <c r="A40" s="62" t="s">
         <v>76</v>
       </c>
@@ -4274,7 +4272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" hidden="1">
       <c r="A41" s="62" t="s">
         <v>76</v>
       </c>
@@ -4343,7 +4341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15.6" customHeight="1">
+    <row r="42" spans="1:25" ht="15.6" hidden="1" customHeight="1">
       <c r="A42" s="62" t="s">
         <v>76</v>
       </c>
@@ -4412,7 +4410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15.6" customHeight="1">
+    <row r="43" spans="1:25" ht="15.6" hidden="1" customHeight="1">
       <c r="A43" s="62" t="s">
         <v>76</v>
       </c>
@@ -4481,7 +4479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" hidden="1">
       <c r="A44" s="62" t="s">
         <v>76</v>
       </c>
@@ -4550,7 +4548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" hidden="1">
       <c r="A45" s="62" t="s">
         <v>76</v>
       </c>
@@ -4619,7 +4617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" hidden="1">
       <c r="A46" s="62" t="s">
         <v>76</v>
       </c>
@@ -4690,7 +4688,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" hidden="1">
       <c r="A47" s="62" t="s">
         <v>76</v>
       </c>
@@ -4743,7 +4741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1">
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -4820,7 +4818,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:25" hidden="1">
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -4897,7 +4895,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:25" hidden="1">
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -4972,7 +4970,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1">
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -5043,7 +5041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:25" hidden="1">
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -5120,7 +5118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:25" hidden="1">
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5197,7 +5195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1">
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -5274,7 +5272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1">
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -5351,7 +5349,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1">
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -5428,7 +5426,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1">
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -5505,7 +5503,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1">
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5582,7 +5580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1">
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -5659,7 +5657,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1">
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -5730,7 +5728,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1">
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -5807,7 +5805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1">
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -5884,7 +5882,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:25" hidden="1">
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -5961,7 +5959,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1">
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -6038,7 +6036,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1">
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -6109,7 +6107,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:25" hidden="1">
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -6186,7 +6184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:25" hidden="1">
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -6263,7 +6261,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1">
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
         <v>42</v>
       </c>

--- a/databases/matrizes.xlsx
+++ b/databases/matrizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CA3A2B-AD45-4031-B186-A748090EA498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FADABD9-0A29-43DC-9AFF-3DDADB71C644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,7 +1184,7 @@
   <autoFilter ref="A1:Y189" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Semi Presencial 30.20 Bacharelado"/>
+        <filter val="EAD 10.10"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1486,7 +1486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:N19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1587,7 +1589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.6" hidden="1">
+    <row r="2" spans="1:25" ht="15.6">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1662,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1812,7 +1814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1952,7 +1954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2021,7 +2023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2090,7 +2092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2159,7 +2161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2228,7 +2230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2297,7 +2299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2366,7 +2368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2435,7 +2437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2504,7 +2506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2642,7 +2644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25" hidden="1">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2711,7 +2713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:25" hidden="1">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2780,7 +2782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:25" hidden="1">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2849,7 +2851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25" hidden="1">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2918,7 +2920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1">
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2987,7 +2989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1">
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" hidden="1">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -4818,7 +4820,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" hidden="1">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" hidden="1">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -4970,7 +4972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" hidden="1">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -5041,7 +5043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" hidden="1">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" hidden="1">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" hidden="1">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -5272,7 +5274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" hidden="1">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -5349,7 +5351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" hidden="1">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -5426,7 +5428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" hidden="1">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -5503,7 +5505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" hidden="1">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5580,7 +5582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" hidden="1">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -5657,7 +5659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" hidden="1">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" hidden="1">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -5805,7 +5807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" hidden="1">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -5882,7 +5884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" hidden="1">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -5959,7 +5961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" hidden="1">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -6036,7 +6038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" hidden="1">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -6107,7 +6109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" hidden="1">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -6184,7 +6186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" hidden="1">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" hidden="1">
       <c r="A68" t="s">
         <v>42</v>
       </c>

--- a/databases/matrizes.xlsx
+++ b/databases/matrizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FADABD9-0A29-43DC-9AFF-3DDADB71C644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AC29DA-954C-4EA9-B70F-FB816FE401A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="83">
   <si>
     <t>UA</t>
   </si>
@@ -186,43 +186,19 @@
     <t>Ext 3</t>
   </si>
   <si>
-    <t>UC2- E</t>
-  </si>
-  <si>
     <t>ESTÁGIO 1</t>
-  </si>
-  <si>
-    <t>UC3- E</t>
   </si>
   <si>
     <t>ESTÁGIO 2</t>
   </si>
   <si>
-    <t>UC4-E</t>
-  </si>
-  <si>
     <t>ESTÁGIO 3</t>
-  </si>
-  <si>
-    <t>UC5-E</t>
-  </si>
-  <si>
-    <t>UC6-E</t>
   </si>
   <si>
     <t>ESTÁGIO 4</t>
   </si>
   <si>
-    <t>UC7-E</t>
-  </si>
-  <si>
-    <t>UC8-E</t>
-  </si>
-  <si>
     <t>ESTÁGIO 5</t>
-  </si>
-  <si>
-    <t>UC10-E</t>
   </si>
   <si>
     <t>PPI 1</t>
@@ -1184,7 +1160,7 @@
   <autoFilter ref="A1:Y189" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="EAD 10.10"/>
+        <filter val="Semi Presencial 30.20 Licenciatura"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1486,9 +1462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:N19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1586,10 +1560,10 @@
         <v>43</v>
       </c>
       <c r="Y1" s="60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15.6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.6" hidden="1">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1655,7 +1629,7 @@
         <v>UC1</v>
       </c>
       <c r="W2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X2" s="59" t="s">
         <v>44</v>
@@ -1664,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" hidden="1">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1730,7 +1704,7 @@
         <v>UC2</v>
       </c>
       <c r="W3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X3" s="59" t="s">
         <v>44</v>
@@ -1739,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" hidden="1">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1814,7 +1788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" hidden="1">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1885,7 +1859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" hidden="1">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1945,7 +1919,7 @@
         <v>UC3</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X6" s="59" t="s">
         <v>44</v>
@@ -1954,7 +1928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" hidden="1">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2014,7 +1988,7 @@
         <v>UC4</v>
       </c>
       <c r="W7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X7" s="59" t="s">
         <v>44</v>
@@ -2023,7 +1997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" hidden="1">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2083,7 +2057,7 @@
         <v>UC5</v>
       </c>
       <c r="W8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X8" s="59" t="s">
         <v>44</v>
@@ -2092,7 +2066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" hidden="1">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2152,7 +2126,7 @@
         <v>UC6</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X9" s="59" t="s">
         <v>44</v>
@@ -2161,7 +2135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" hidden="1">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2221,7 +2195,7 @@
         <v>UC7</v>
       </c>
       <c r="W10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X10" s="59" t="s">
         <v>44</v>
@@ -2230,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" hidden="1">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2290,7 +2264,7 @@
         <v>UC8</v>
       </c>
       <c r="W11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X11" s="59" t="s">
         <v>44</v>
@@ -2299,7 +2273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" hidden="1">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2359,7 +2333,7 @@
         <v>UC9</v>
       </c>
       <c r="W12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X12" s="59" t="s">
         <v>44</v>
@@ -2368,7 +2342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" hidden="1">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2428,7 +2402,7 @@
         <v>UC10</v>
       </c>
       <c r="W13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X13" s="59" t="s">
         <v>44</v>
@@ -2437,7 +2411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" hidden="1">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2506,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" hidden="1">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2566,7 +2540,7 @@
         <v>UC11</v>
       </c>
       <c r="W15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X15" s="59" t="s">
         <v>44</v>
@@ -2575,7 +2549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" hidden="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2635,7 +2609,7 @@
         <v>UC12</v>
       </c>
       <c r="W16" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X16" s="59" t="s">
         <v>44</v>
@@ -2644,7 +2618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" hidden="1">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2704,7 +2678,7 @@
         <v>UC13</v>
       </c>
       <c r="W17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="X17" s="59" t="s">
         <v>44</v>
@@ -2713,7 +2687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" hidden="1">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2773,7 +2747,7 @@
         <v>UC14</v>
       </c>
       <c r="W18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="X18" s="59" t="s">
         <v>44</v>
@@ -2782,7 +2756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" hidden="1">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2851,7 +2825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" hidden="1">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2911,7 +2885,7 @@
         <v>UC15</v>
       </c>
       <c r="W20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="X20" s="59" t="s">
         <v>44</v>
@@ -2920,7 +2894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" hidden="1">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2980,7 +2954,7 @@
         <v>UC16</v>
       </c>
       <c r="W21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="X21" s="59" t="s">
         <v>44</v>
@@ -2989,7 +2963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" hidden="1">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2997,7 +2971,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -3027,7 +3001,7 @@
         <v>TCC</v>
       </c>
       <c r="W22" s="63" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="X22" s="59" t="s">
         <v>45</v>
@@ -3038,7 +3012,7 @@
     </row>
     <row r="23" spans="1:25" hidden="1">
       <c r="A23" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B23" s="81">
         <v>1</v>
@@ -3096,7 +3070,7 @@
         <v>UC1</v>
       </c>
       <c r="W23" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X23" s="59" t="s">
         <v>44</v>
@@ -3107,7 +3081,7 @@
     </row>
     <row r="24" spans="1:25" hidden="1">
       <c r="A24" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B24" s="81">
         <v>1</v>
@@ -3165,7 +3139,7 @@
         <v>UC2</v>
       </c>
       <c r="W24" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X24" s="59" t="s">
         <v>44</v>
@@ -3176,7 +3150,7 @@
     </row>
     <row r="25" spans="1:25" hidden="1">
       <c r="A25" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B25" s="81">
         <v>1</v>
@@ -3245,7 +3219,7 @@
     </row>
     <row r="26" spans="1:25" hidden="1">
       <c r="A26" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B26" s="81">
         <v>1</v>
@@ -3314,7 +3288,7 @@
     </row>
     <row r="27" spans="1:25" hidden="1">
       <c r="A27" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B27" s="83">
         <v>2</v>
@@ -3372,7 +3346,7 @@
         <v>UC3</v>
       </c>
       <c r="W27" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X27" s="59" t="s">
         <v>44</v>
@@ -3383,7 +3357,7 @@
     </row>
     <row r="28" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A28" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B28" s="83">
         <v>2</v>
@@ -3441,7 +3415,7 @@
         <v>UC4</v>
       </c>
       <c r="W28" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X28" s="59" t="s">
         <v>44</v>
@@ -3452,7 +3426,7 @@
     </row>
     <row r="29" spans="1:25" hidden="1">
       <c r="A29" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B29" s="83">
         <v>2</v>
@@ -3519,7 +3493,7 @@
     </row>
     <row r="30" spans="1:25" hidden="1">
       <c r="A30" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B30" s="47">
         <v>3</v>
@@ -3577,7 +3551,7 @@
         <v>UC5</v>
       </c>
       <c r="W30" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X30" s="59" t="s">
         <v>44</v>
@@ -3588,7 +3562,7 @@
     </row>
     <row r="31" spans="1:25" hidden="1">
       <c r="A31" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B31" s="47">
         <v>3</v>
@@ -3646,7 +3620,7 @@
         <v>UC6</v>
       </c>
       <c r="W31" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X31" s="59" t="s">
         <v>44</v>
@@ -3657,7 +3631,7 @@
     </row>
     <row r="32" spans="1:25" hidden="1">
       <c r="A32" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B32" s="85">
         <v>4</v>
@@ -3715,7 +3689,7 @@
         <v>UC7</v>
       </c>
       <c r="W32" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X32" s="59" t="s">
         <v>44</v>
@@ -3726,7 +3700,7 @@
     </row>
     <row r="33" spans="1:25" hidden="1">
       <c r="A33" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B33" s="85">
         <v>4</v>
@@ -3784,7 +3758,7 @@
         <v>UC8</v>
       </c>
       <c r="W33" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X33" s="59" t="s">
         <v>44</v>
@@ -3795,7 +3769,7 @@
     </row>
     <row r="34" spans="1:25" hidden="1">
       <c r="A34" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B34" s="55">
         <v>5</v>
@@ -3853,7 +3827,7 @@
         <v>UC9</v>
       </c>
       <c r="W34" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X34" s="59" t="s">
         <v>44</v>
@@ -3864,7 +3838,7 @@
     </row>
     <row r="35" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A35" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B35" s="55">
         <v>5</v>
@@ -3922,7 +3896,7 @@
         <v>UC10</v>
       </c>
       <c r="W35" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X35" s="59" t="s">
         <v>44</v>
@@ -3933,7 +3907,7 @@
     </row>
     <row r="36" spans="1:25" hidden="1">
       <c r="A36" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B36" s="55">
         <v>5</v>
@@ -4000,7 +3974,7 @@
     </row>
     <row r="37" spans="1:25" hidden="1">
       <c r="A37" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B37" s="87">
         <v>6</v>
@@ -4058,7 +4032,7 @@
         <v>UC11</v>
       </c>
       <c r="W37" s="59" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X37" s="59" t="s">
         <v>44</v>
@@ -4069,7 +4043,7 @@
     </row>
     <row r="38" spans="1:25" hidden="1">
       <c r="A38" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B38" s="87">
         <v>6</v>
@@ -4127,7 +4101,7 @@
         <v>UC12</v>
       </c>
       <c r="W38" s="59" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X38" s="59" t="s">
         <v>44</v>
@@ -4138,7 +4112,7 @@
     </row>
     <row r="39" spans="1:25" hidden="1">
       <c r="A39" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B39" s="89">
         <v>7</v>
@@ -4196,7 +4170,7 @@
         <v>UC13</v>
       </c>
       <c r="W39" s="59" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X39" s="59" t="s">
         <v>44</v>
@@ -4207,7 +4181,7 @@
     </row>
     <row r="40" spans="1:25" hidden="1">
       <c r="A40" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B40" s="89">
         <v>7</v>
@@ -4265,7 +4239,7 @@
         <v>UC14</v>
       </c>
       <c r="W40" s="59" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X40" s="59" t="s">
         <v>44</v>
@@ -4276,7 +4250,7 @@
     </row>
     <row r="41" spans="1:25" hidden="1">
       <c r="A41" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B41" s="85">
         <v>8</v>
@@ -4334,7 +4308,7 @@
         <v>UC15</v>
       </c>
       <c r="W41" s="59" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X41" s="59" t="s">
         <v>44</v>
@@ -4345,7 +4319,7 @@
     </row>
     <row r="42" spans="1:25" ht="15.6" hidden="1" customHeight="1">
       <c r="A42" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B42" s="85">
         <v>8</v>
@@ -4403,7 +4377,7 @@
         <v>UC16</v>
       </c>
       <c r="W42" s="59" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X42" s="59" t="s">
         <v>44</v>
@@ -4414,13 +4388,13 @@
     </row>
     <row r="43" spans="1:25" ht="15.6" hidden="1" customHeight="1">
       <c r="A43" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B43" s="75">
         <v>9</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D43" s="103">
         <v>120</v>
@@ -4472,7 +4446,7 @@
         <v>UC17</v>
       </c>
       <c r="W43" s="59" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X43" s="59" t="s">
         <v>44</v>
@@ -4483,13 +4457,13 @@
     </row>
     <row r="44" spans="1:25" hidden="1">
       <c r="A44" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B44" s="75">
         <v>9</v>
       </c>
       <c r="C44" s="75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="75">
         <v>20</v>
@@ -4541,7 +4515,7 @@
         <v>ESTÁGIO 1</v>
       </c>
       <c r="W44" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X44" s="59" t="s">
         <v>44</v>
@@ -4552,13 +4526,13 @@
     </row>
     <row r="45" spans="1:25" hidden="1">
       <c r="A45" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B45" s="91">
         <v>10</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D45" s="91">
         <v>120</v>
@@ -4610,7 +4584,7 @@
         <v>UC18</v>
       </c>
       <c r="W45" s="59" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X45" s="59" t="s">
         <v>44</v>
@@ -4621,13 +4595,13 @@
     </row>
     <row r="46" spans="1:25" hidden="1">
       <c r="A46" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B46" s="91">
         <v>10</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D46" s="91">
         <v>20</v>
@@ -4681,7 +4655,7 @@
         <v>TCC</v>
       </c>
       <c r="W46" s="63" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="X46" s="59" t="s">
         <v>45</v>
@@ -4692,13 +4666,13 @@
     </row>
     <row r="47" spans="1:25" hidden="1">
       <c r="A47" s="62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B47" s="91">
         <v>10</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D47" s="91">
         <v>20</v>
@@ -4734,7 +4708,7 @@
         <v>ESTÁGIO 2</v>
       </c>
       <c r="W47" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X47" s="59" t="s">
         <v>44</v>
@@ -4811,7 +4785,7 @@
         <v>UC1</v>
       </c>
       <c r="W48" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X48" s="59" t="s">
         <v>44</v>
@@ -4888,7 +4862,7 @@
         <v>UC2</v>
       </c>
       <c r="W49" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X49" s="59" t="s">
         <v>44</v>
@@ -5111,7 +5085,7 @@
         <v>UC3</v>
       </c>
       <c r="W52" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X52" s="59" t="s">
         <v>44</v>
@@ -5188,7 +5162,7 @@
         <v>UC4</v>
       </c>
       <c r="W53" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X53" s="59" t="s">
         <v>44</v>
@@ -5265,7 +5239,7 @@
         <v>UC5</v>
       </c>
       <c r="W54" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X54" s="59" t="s">
         <v>44</v>
@@ -5342,7 +5316,7 @@
         <v>UC6</v>
       </c>
       <c r="W55" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X55" s="59" t="s">
         <v>44</v>
@@ -5419,7 +5393,7 @@
         <v>UC7</v>
       </c>
       <c r="W56" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X56" s="59" t="s">
         <v>44</v>
@@ -5496,7 +5470,7 @@
         <v>UC8</v>
       </c>
       <c r="W57" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X57" s="59" t="s">
         <v>44</v>
@@ -5573,7 +5547,7 @@
         <v>UC9</v>
       </c>
       <c r="W58" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X58" s="59" t="s">
         <v>44</v>
@@ -5650,7 +5624,7 @@
         <v>UC10</v>
       </c>
       <c r="W59" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X59" s="59" t="s">
         <v>44</v>
@@ -5798,7 +5772,7 @@
         <v>UC11</v>
       </c>
       <c r="W61" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X61" s="59" t="s">
         <v>44</v>
@@ -5875,7 +5849,7 @@
         <v>UC12</v>
       </c>
       <c r="W62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X62" s="59" t="s">
         <v>44</v>
@@ -5952,7 +5926,7 @@
         <v>UC13</v>
       </c>
       <c r="W63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X63" s="59" t="s">
         <v>44</v>
@@ -6029,7 +6003,7 @@
         <v>UC14</v>
       </c>
       <c r="W64" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X64" s="59" t="s">
         <v>44</v>
@@ -6177,7 +6151,7 @@
         <v>UC15</v>
       </c>
       <c r="W66" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X66" s="59" t="s">
         <v>44</v>
@@ -6254,7 +6228,7 @@
         <v>UC16</v>
       </c>
       <c r="W67" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X67" s="59" t="s">
         <v>44</v>
@@ -6271,7 +6245,7 @@
         <v>8</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
@@ -6301,7 +6275,7 @@
         <v>TCC</v>
       </c>
       <c r="W68" s="63" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="X68" s="59" t="s">
         <v>45</v>
@@ -6310,9 +6284,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1">
+    <row r="69" spans="1:25">
       <c r="A69" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B69" s="42">
         <v>1</v>
@@ -6370,7 +6344,7 @@
         <v>UC1</v>
       </c>
       <c r="W69" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X69" s="59" t="s">
         <v>44</v>
@@ -6379,15 +6353,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1">
+    <row r="70" spans="1:25">
       <c r="A70" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B70" s="42">
         <v>1</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D70" s="42">
         <v>120</v>
@@ -6436,10 +6410,10 @@
       <c r="U70" s="63"/>
       <c r="V70" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC2- E</v>
+        <v>UC2</v>
       </c>
       <c r="W70" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X70" s="59" t="s">
         <v>44</v>
@@ -6448,15 +6422,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1">
+    <row r="71" spans="1:25">
       <c r="A71" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B71" s="44">
         <v>1</v>
       </c>
       <c r="C71" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71" s="44">
         <v>50</v>
@@ -6508,7 +6482,7 @@
         <v>ESTÁGIO 1</v>
       </c>
       <c r="W71" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X71" s="59" t="s">
         <v>44</v>
@@ -6517,9 +6491,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:25" hidden="1">
+    <row r="72" spans="1:25">
       <c r="A72" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B72" s="44">
         <v>1</v>
@@ -6586,9 +6560,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:25" hidden="1">
+    <row r="73" spans="1:25">
       <c r="A73" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B73" s="42">
         <v>1</v>
@@ -6655,15 +6629,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:25" hidden="1">
+    <row r="74" spans="1:25">
       <c r="A74" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B74" s="65">
         <v>2</v>
       </c>
       <c r="C74" s="65" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D74" s="65">
         <v>120</v>
@@ -6712,10 +6686,10 @@
       <c r="U74" s="63"/>
       <c r="V74" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC3- E</v>
+        <v>UC3</v>
       </c>
       <c r="W74" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X74" s="59" t="s">
         <v>44</v>
@@ -6724,15 +6698,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:25" hidden="1">
+    <row r="75" spans="1:25">
       <c r="A75" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B75" s="65">
         <v>2</v>
       </c>
       <c r="C75" s="65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D75" s="65">
         <v>50</v>
@@ -6784,7 +6758,7 @@
         <v>ESTÁGIO 2</v>
       </c>
       <c r="W75" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X75" s="59" t="s">
         <v>44</v>
@@ -6793,15 +6767,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:25" hidden="1">
+    <row r="76" spans="1:25">
       <c r="A76" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B76" s="65">
         <v>2</v>
       </c>
       <c r="C76" s="65" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D76" s="65">
         <v>120</v>
@@ -6850,10 +6824,10 @@
       <c r="U76" s="63"/>
       <c r="V76" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC4-E</v>
+        <v>UC4</v>
       </c>
       <c r="W76" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X76" s="59" t="s">
         <v>44</v>
@@ -6862,15 +6836,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:25" hidden="1">
+    <row r="77" spans="1:25">
       <c r="A77" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B77" s="49">
         <v>3</v>
       </c>
       <c r="C77" s="49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D77" s="49">
         <v>50</v>
@@ -6922,7 +6896,7 @@
         <v>ESTÁGIO 3</v>
       </c>
       <c r="W77" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X77" s="59" t="s">
         <v>44</v>
@@ -6931,15 +6905,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:25" hidden="1">
+    <row r="78" spans="1:25">
       <c r="A78" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B78" s="49">
         <v>3</v>
       </c>
       <c r="C78" s="49" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D78" s="49">
         <v>120</v>
@@ -6988,10 +6962,10 @@
       <c r="U78" s="63"/>
       <c r="V78" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC5-E</v>
+        <v>UC5</v>
       </c>
       <c r="W78" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X78" s="59" t="s">
         <v>44</v>
@@ -7000,15 +6974,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:25" hidden="1">
+    <row r="79" spans="1:25">
       <c r="A79" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B79" s="49">
         <v>3</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D79" s="49">
         <v>120</v>
@@ -7057,10 +7031,10 @@
       <c r="U79" s="63"/>
       <c r="V79" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC6-E</v>
+        <v>UC6</v>
       </c>
       <c r="W79" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X79" s="59" t="s">
         <v>44</v>
@@ -7069,15 +7043,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:25" hidden="1">
+    <row r="80" spans="1:25">
       <c r="A80" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B80" s="53">
         <v>4</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D80" s="53">
         <v>50</v>
@@ -7129,7 +7103,7 @@
         <v>ESTÁGIO 4</v>
       </c>
       <c r="W80" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X80" s="59" t="s">
         <v>44</v>
@@ -7138,15 +7112,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:25" hidden="1">
+    <row r="81" spans="1:25">
       <c r="A81" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B81" s="53">
         <v>4</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D81" s="53">
         <v>120</v>
@@ -7195,10 +7169,10 @@
       <c r="U81" s="63"/>
       <c r="V81" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC7-E</v>
+        <v>UC7</v>
       </c>
       <c r="W81" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X81" s="59" t="s">
         <v>44</v>
@@ -7207,15 +7181,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:25" hidden="1">
+    <row r="82" spans="1:25">
       <c r="A82" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B82" s="67">
         <v>4</v>
       </c>
       <c r="C82" s="67" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D82" s="67">
         <v>120</v>
@@ -7264,10 +7238,10 @@
       <c r="U82" s="63"/>
       <c r="V82" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC8-E</v>
+        <v>UC8</v>
       </c>
       <c r="W82" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X82" s="59" t="s">
         <v>44</v>
@@ -7276,9 +7250,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:25" hidden="1">
+    <row r="83" spans="1:25">
       <c r="A83" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B83" s="53">
         <v>4</v>
@@ -7345,9 +7319,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:25" hidden="1">
+    <row r="84" spans="1:25">
       <c r="A84" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B84" s="51">
         <v>5</v>
@@ -7405,7 +7379,7 @@
         <v>UC9</v>
       </c>
       <c r="W84" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X84" s="59" t="s">
         <v>44</v>
@@ -7414,15 +7388,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:25" hidden="1">
+    <row r="85" spans="1:25">
       <c r="A85" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B85" s="51">
         <v>5</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D85" s="51">
         <v>50</v>
@@ -7474,7 +7448,7 @@
         <v>ESTÁGIO 5</v>
       </c>
       <c r="W85" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X85" s="59" t="s">
         <v>44</v>
@@ -7483,15 +7457,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:25" hidden="1">
+    <row r="86" spans="1:25">
       <c r="A86" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B86" s="51">
         <v>5</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D86" s="51">
         <v>120</v>
@@ -7540,10 +7514,10 @@
       <c r="U86" s="63"/>
       <c r="V86" s="64" t="str">
         <f>Table1[[#This Row],[UC]]</f>
-        <v>UC10-E</v>
+        <v>UC10</v>
       </c>
       <c r="W86" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X86" s="59" t="s">
         <v>44</v>
@@ -7552,9 +7526,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:25" hidden="1">
+    <row r="87" spans="1:25">
       <c r="A87" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B87" s="55">
         <v>6</v>
@@ -7612,7 +7586,7 @@
         <v>UC11</v>
       </c>
       <c r="W87" s="59" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="X87" s="59" t="s">
         <v>44</v>
@@ -7621,15 +7595,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:25" hidden="1">
+    <row r="88" spans="1:25">
       <c r="A88" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B88" s="55">
         <v>6</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D88" s="55">
         <v>120</v>
@@ -7681,7 +7655,7 @@
         <v>PPI 1</v>
       </c>
       <c r="W88" s="63" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="X88" s="59" t="s">
         <v>44</v>
@@ -7690,9 +7664,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:25" hidden="1">
+    <row r="89" spans="1:25">
       <c r="A89" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B89" s="55">
         <v>6</v>
@@ -7750,7 +7724,7 @@
         <v>UC12</v>
       </c>
       <c r="W89" s="59" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="X89" s="59" t="s">
         <v>44</v>
@@ -7759,15 +7733,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:25" hidden="1">
+    <row r="90" spans="1:25">
       <c r="A90" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B90" s="55">
         <v>6</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D90" s="55">
         <v>50</v>
@@ -7819,7 +7793,7 @@
         <v>ESTÁGIO 6</v>
       </c>
       <c r="W90" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X90" s="59" t="s">
         <v>44</v>
@@ -7828,15 +7802,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:25" hidden="1">
+    <row r="91" spans="1:25">
       <c r="A91" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B91" s="49">
         <v>7</v>
       </c>
       <c r="C91" s="49" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D91" s="49">
         <v>60</v>
@@ -7888,7 +7862,7 @@
         <v>PPI 2</v>
       </c>
       <c r="W91" s="63" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="X91" s="59" t="s">
         <v>44</v>
@@ -7897,9 +7871,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:25" hidden="1">
+    <row r="92" spans="1:25" ht="15" thickBot="1">
       <c r="A92" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B92" s="49">
         <v>7</v>
@@ -7957,7 +7931,7 @@
         <v>UC13</v>
       </c>
       <c r="W92" s="59" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="X92" s="59" t="s">
         <v>44</v>
@@ -7966,15 +7940,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15" hidden="1" thickBot="1">
+    <row r="93" spans="1:25" ht="15" thickBot="1">
       <c r="A93" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B93" s="49">
         <v>7</v>
       </c>
       <c r="C93" s="95" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D93" s="102">
         <v>50</v>
@@ -8026,7 +8000,7 @@
         <v>ESTÁGIO 7</v>
       </c>
       <c r="W93" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X93" s="59" t="s">
         <v>44</v>
@@ -8035,9 +8009,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:25" hidden="1">
+    <row r="94" spans="1:25">
       <c r="A94" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B94" s="49">
         <v>7</v>
@@ -8104,9 +8078,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:25" hidden="1">
+    <row r="95" spans="1:25">
       <c r="A95" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B95" s="53">
         <v>8</v>
@@ -8164,7 +8138,7 @@
         <v>UC14</v>
       </c>
       <c r="W95" s="59" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="X95" s="59" t="s">
         <v>44</v>
@@ -8173,15 +8147,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:25" hidden="1">
+    <row r="96" spans="1:25">
       <c r="A96" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B96" s="53">
         <v>8</v>
       </c>
       <c r="C96" s="53" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D96" s="53">
         <v>50</v>
@@ -8233,7 +8207,7 @@
         <v>ESTÁGIO 8</v>
       </c>
       <c r="W96" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X96" s="59" t="s">
         <v>44</v>
@@ -8242,15 +8216,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:25" hidden="1">
+    <row r="97" spans="1:25">
       <c r="A97" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B97" s="53">
         <v>8</v>
       </c>
       <c r="C97" s="53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D97" s="53"/>
       <c r="E97" s="53"/>
@@ -8280,7 +8254,7 @@
         <v>TCC</v>
       </c>
       <c r="W97" s="63" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="X97" s="59" t="s">
         <v>45</v>
@@ -8291,7 +8265,7 @@
     </row>
     <row r="98" spans="1:25" hidden="1">
       <c r="A98" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B98" s="42">
         <v>1</v>
@@ -8349,7 +8323,7 @@
         <v>UC1</v>
       </c>
       <c r="W98" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X98" s="59" t="s">
         <v>44</v>
@@ -8360,7 +8334,7 @@
     </row>
     <row r="99" spans="1:25" hidden="1">
       <c r="A99" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B99" s="44">
         <v>1</v>
@@ -8418,7 +8392,7 @@
         <v>UC2</v>
       </c>
       <c r="W99" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X99" s="59" t="s">
         <v>44</v>
@@ -8429,7 +8403,7 @@
     </row>
     <row r="100" spans="1:25" hidden="1">
       <c r="A100" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B100" s="42">
         <v>1</v>
@@ -8498,7 +8472,7 @@
     </row>
     <row r="101" spans="1:25" hidden="1">
       <c r="A101" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B101" s="42">
         <v>1</v>
@@ -8567,7 +8541,7 @@
     </row>
     <row r="102" spans="1:25" hidden="1">
       <c r="A102" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B102" s="65">
         <v>2</v>
@@ -8625,7 +8599,7 @@
         <v>UC3</v>
       </c>
       <c r="W102" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X102" s="59" t="s">
         <v>44</v>
@@ -8636,7 +8610,7 @@
     </row>
     <row r="103" spans="1:25" hidden="1">
       <c r="A103" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B103" s="65">
         <v>2</v>
@@ -8694,7 +8668,7 @@
         <v>UC4</v>
       </c>
       <c r="W103" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X103" s="59" t="s">
         <v>44</v>
@@ -8705,7 +8679,7 @@
     </row>
     <row r="104" spans="1:25" hidden="1">
       <c r="A104" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B104" s="65">
         <v>2</v>
@@ -8774,7 +8748,7 @@
     </row>
     <row r="105" spans="1:25" hidden="1">
       <c r="A105" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B105" s="49">
         <v>3</v>
@@ -8832,7 +8806,7 @@
         <v>UC5</v>
       </c>
       <c r="W105" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X105" s="59" t="s">
         <v>44</v>
@@ -8843,7 +8817,7 @@
     </row>
     <row r="106" spans="1:25" hidden="1">
       <c r="A106" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B106" s="49">
         <v>3</v>
@@ -8901,7 +8875,7 @@
         <v>UC6</v>
       </c>
       <c r="W106" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X106" s="59" t="s">
         <v>44</v>
@@ -8912,7 +8886,7 @@
     </row>
     <row r="107" spans="1:25" hidden="1">
       <c r="A107" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B107" s="53">
         <v>4</v>
@@ -8970,7 +8944,7 @@
         <v>UC7</v>
       </c>
       <c r="W107" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X107" s="59" t="s">
         <v>44</v>
@@ -8981,7 +8955,7 @@
     </row>
     <row r="108" spans="1:25" hidden="1">
       <c r="A108" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B108" s="53">
         <v>4</v>
@@ -9039,7 +9013,7 @@
         <v>UC8</v>
       </c>
       <c r="W108" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X108" s="59" t="s">
         <v>44</v>
@@ -9050,7 +9024,7 @@
     </row>
     <row r="109" spans="1:25" hidden="1">
       <c r="A109" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B109" s="51">
         <v>5</v>
@@ -9108,7 +9082,7 @@
         <v>UC9</v>
       </c>
       <c r="W109" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X109" s="59" t="s">
         <v>44</v>
@@ -9119,7 +9093,7 @@
     </row>
     <row r="110" spans="1:25" hidden="1">
       <c r="A110" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B110" s="51">
         <v>5</v>
@@ -9177,7 +9151,7 @@
         <v>UC10</v>
       </c>
       <c r="W110" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X110" s="59" t="s">
         <v>44</v>
@@ -9188,7 +9162,7 @@
     </row>
     <row r="111" spans="1:25" hidden="1">
       <c r="A111" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B111" s="51">
         <v>5</v>
@@ -9257,7 +9231,7 @@
     </row>
     <row r="112" spans="1:25" hidden="1">
       <c r="A112" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B112" s="55">
         <v>6</v>
@@ -9315,7 +9289,7 @@
         <v>UC11</v>
       </c>
       <c r="W112" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X112" s="59" t="s">
         <v>44</v>
@@ -9326,7 +9300,7 @@
     </row>
     <row r="113" spans="1:25" hidden="1">
       <c r="A113" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B113" s="55">
         <v>6</v>
@@ -9384,7 +9358,7 @@
         <v>UC12</v>
       </c>
       <c r="W113" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X113" s="59" t="s">
         <v>44</v>
@@ -9395,7 +9369,7 @@
     </row>
     <row r="114" spans="1:25" hidden="1">
       <c r="A114" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B114" s="49">
         <v>7</v>
@@ -9453,7 +9427,7 @@
         <v>UC13</v>
       </c>
       <c r="W114" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="X114" s="59" t="s">
         <v>44</v>
@@ -9464,7 +9438,7 @@
     </row>
     <row r="115" spans="1:25" hidden="1">
       <c r="A115" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B115" s="49">
         <v>7</v>
@@ -9522,7 +9496,7 @@
         <v>UC14</v>
       </c>
       <c r="W115" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="X115" s="59" t="s">
         <v>44</v>
@@ -9533,7 +9507,7 @@
     </row>
     <row r="116" spans="1:25" hidden="1">
       <c r="A116" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B116" s="53">
         <v>8</v>
@@ -9591,7 +9565,7 @@
         <v>UC15</v>
       </c>
       <c r="W116" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="X116" s="59" t="s">
         <v>44</v>
@@ -9602,7 +9576,7 @@
     </row>
     <row r="117" spans="1:25" hidden="1">
       <c r="A117" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B117" s="53">
         <v>8</v>
@@ -9660,7 +9634,7 @@
         <v>UC16</v>
       </c>
       <c r="W117" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="X117" s="59" t="s">
         <v>44</v>
@@ -9671,13 +9645,13 @@
     </row>
     <row r="118" spans="1:25" hidden="1">
       <c r="A118" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B118" s="53">
         <v>8</v>
       </c>
       <c r="C118" s="53" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D118" s="53">
         <v>60</v>
@@ -9729,7 +9703,7 @@
         <v>UC17</v>
       </c>
       <c r="W118" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="X118" s="59" t="s">
         <v>44</v>
@@ -9740,13 +9714,13 @@
     </row>
     <row r="119" spans="1:25" hidden="1">
       <c r="A119" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B119" s="75">
         <v>9</v>
       </c>
       <c r="C119" s="75" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D119" s="75">
         <v>120</v>
@@ -9798,7 +9772,7 @@
         <v>UC18</v>
       </c>
       <c r="W119" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="X119" s="59" t="s">
         <v>44</v>
@@ -9809,13 +9783,13 @@
     </row>
     <row r="120" spans="1:25" hidden="1">
       <c r="A120" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B120" s="75">
         <v>9</v>
       </c>
       <c r="C120" s="75" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D120" s="75">
         <v>120</v>
@@ -9867,7 +9841,7 @@
         <v>UC19</v>
       </c>
       <c r="W120" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="X120" s="59" t="s">
         <v>44</v>
@@ -9878,13 +9852,13 @@
     </row>
     <row r="121" spans="1:25" hidden="1">
       <c r="A121" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B121" s="75">
         <v>9</v>
       </c>
       <c r="C121" s="75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D121" s="75">
         <v>20</v>
@@ -9936,7 +9910,7 @@
         <v>ESTÁGIO 1</v>
       </c>
       <c r="W121" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X121" s="59" t="s">
         <v>44</v>
@@ -9947,13 +9921,13 @@
     </row>
     <row r="122" spans="1:25" hidden="1">
       <c r="A122" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B122" s="77">
         <v>10</v>
       </c>
       <c r="C122" s="77" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D122" s="77">
         <v>120</v>
@@ -10005,7 +9979,7 @@
         <v>UC20</v>
       </c>
       <c r="W122" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="X122" s="59" t="s">
         <v>44</v>
@@ -10016,13 +9990,13 @@
     </row>
     <row r="123" spans="1:25" hidden="1">
       <c r="A123" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B123" s="77">
         <v>10</v>
       </c>
       <c r="C123" s="77" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D123" s="77">
         <v>120</v>
@@ -10074,7 +10048,7 @@
         <v>UC21</v>
       </c>
       <c r="W123" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="X123" s="59" t="s">
         <v>44</v>
@@ -10085,13 +10059,13 @@
     </row>
     <row r="124" spans="1:25" hidden="1">
       <c r="A124" s="62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B124" s="79">
         <v>10</v>
       </c>
       <c r="C124" s="79" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D124" s="79">
         <v>40</v>
@@ -10145,7 +10119,7 @@
         <v>TCC</v>
       </c>
       <c r="W124" s="63" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="X124" s="59" t="s">
         <v>45</v>
@@ -10156,7 +10130,7 @@
     </row>
     <row r="125" spans="1:25" hidden="1">
       <c r="A125" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B125" s="42">
         <v>1</v>
@@ -10222,7 +10196,7 @@
         <v>UC1</v>
       </c>
       <c r="W125" s="63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X125" s="63" t="s">
         <v>44</v>
@@ -10233,7 +10207,7 @@
     </row>
     <row r="126" spans="1:25" hidden="1">
       <c r="A126" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B126" s="42">
         <v>1</v>
@@ -10299,7 +10273,7 @@
         <v>UC2</v>
       </c>
       <c r="W126" s="63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X126" s="63" t="s">
         <v>44</v>
@@ -10310,7 +10284,7 @@
     </row>
     <row r="127" spans="1:25" hidden="1">
       <c r="A127" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B127" s="42">
         <v>1</v>
@@ -10385,7 +10359,7 @@
     </row>
     <row r="128" spans="1:25" hidden="1">
       <c r="A128" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B128" s="42">
         <v>1</v>
@@ -10456,7 +10430,7 @@
     </row>
     <row r="129" spans="1:25" hidden="1">
       <c r="A129" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B129" s="45">
         <v>2</v>
@@ -10522,7 +10496,7 @@
         <v>UC3</v>
       </c>
       <c r="W129" s="63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X129" s="63" t="s">
         <v>44</v>
@@ -10533,7 +10507,7 @@
     </row>
     <row r="130" spans="1:25" hidden="1">
       <c r="A130" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B130" s="45">
         <v>2</v>
@@ -10599,7 +10573,7 @@
         <v>UC4</v>
       </c>
       <c r="W130" s="63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X130" s="63" t="s">
         <v>44</v>
@@ -10610,7 +10584,7 @@
     </row>
     <row r="131" spans="1:25" hidden="1">
       <c r="A131" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B131" s="47">
         <v>3</v>
@@ -10676,7 +10650,7 @@
         <v>UC5</v>
       </c>
       <c r="W131" s="63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X131" s="63" t="s">
         <v>44</v>
@@ -10687,7 +10661,7 @@
     </row>
     <row r="132" spans="1:25" hidden="1">
       <c r="A132" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B132" s="47">
         <v>3</v>
@@ -10753,7 +10727,7 @@
         <v>UC6</v>
       </c>
       <c r="W132" s="63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X132" s="63" t="s">
         <v>44</v>
@@ -10764,7 +10738,7 @@
     </row>
     <row r="133" spans="1:25" hidden="1">
       <c r="A133" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B133" s="49">
         <v>4</v>
@@ -10830,7 +10804,7 @@
         <v>UC7</v>
       </c>
       <c r="W133" s="63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X133" s="63" t="s">
         <v>44</v>
@@ -10841,7 +10815,7 @@
     </row>
     <row r="134" spans="1:25" hidden="1">
       <c r="A134" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B134" s="49">
         <v>4</v>
@@ -10907,7 +10881,7 @@
         <v>UC8</v>
       </c>
       <c r="W134" s="63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X134" s="63" t="s">
         <v>44</v>
@@ -10918,7 +10892,7 @@
     </row>
     <row r="135" spans="1:25" hidden="1">
       <c r="A135" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B135" s="51">
         <v>5</v>
@@ -10984,7 +10958,7 @@
         <v>UC9</v>
       </c>
       <c r="W135" s="63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X135" s="63" t="s">
         <v>44</v>
@@ -10995,7 +10969,7 @@
     </row>
     <row r="136" spans="1:25" hidden="1">
       <c r="A136" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B136" s="51">
         <v>5</v>
@@ -11061,7 +11035,7 @@
         <v>UC10</v>
       </c>
       <c r="W136" s="63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X136" s="63" t="s">
         <v>44</v>
@@ -11072,7 +11046,7 @@
     </row>
     <row r="137" spans="1:25" hidden="1">
       <c r="A137" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B137" s="51">
         <v>5</v>
@@ -11143,7 +11117,7 @@
     </row>
     <row r="138" spans="1:25" hidden="1">
       <c r="A138" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B138" s="53">
         <v>6</v>
@@ -11209,7 +11183,7 @@
         <v>UC11</v>
       </c>
       <c r="W138" s="63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X138" s="63" t="s">
         <v>44</v>
@@ -11220,7 +11194,7 @@
     </row>
     <row r="139" spans="1:25" hidden="1">
       <c r="A139" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B139" s="53">
         <v>6</v>
@@ -11286,7 +11260,7 @@
         <v>UC12</v>
       </c>
       <c r="W139" s="63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X139" s="63" t="s">
         <v>44</v>
@@ -11297,7 +11271,7 @@
     </row>
     <row r="140" spans="1:25" hidden="1">
       <c r="A140" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B140" s="55">
         <v>7</v>
@@ -11363,7 +11337,7 @@
         <v>UC13</v>
       </c>
       <c r="W140" s="63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X140" s="63" t="s">
         <v>44</v>
@@ -11374,7 +11348,7 @@
     </row>
     <row r="141" spans="1:25" hidden="1">
       <c r="A141" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B141" s="55">
         <v>7</v>
@@ -11440,7 +11414,7 @@
         <v>UC14</v>
       </c>
       <c r="W141" s="63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X141" s="63" t="s">
         <v>44</v>
@@ -11451,7 +11425,7 @@
     </row>
     <row r="142" spans="1:25" hidden="1">
       <c r="A142" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B142" s="55">
         <v>8</v>
@@ -11522,7 +11496,7 @@
     </row>
     <row r="143" spans="1:25" hidden="1">
       <c r="A143" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B143" s="55">
         <v>8</v>
@@ -11588,7 +11562,7 @@
         <v>UC15</v>
       </c>
       <c r="W143" s="63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X143" s="63" t="s">
         <v>44</v>
@@ -11599,7 +11573,7 @@
     </row>
     <row r="144" spans="1:25" hidden="1">
       <c r="A144" s="118" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B144" s="55">
         <v>8</v>
@@ -11665,7 +11639,7 @@
         <v>UC16</v>
       </c>
       <c r="W144" s="63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X144" s="63" t="s">
         <v>44</v>
@@ -11676,7 +11650,7 @@
     </row>
     <row r="145" spans="1:25" ht="15.6" hidden="1">
       <c r="A145" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B145" s="24">
         <v>1</v>
@@ -11751,7 +11725,7 @@
     </row>
     <row r="146" spans="1:25" hidden="1">
       <c r="A146" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B146" s="24">
         <v>1</v>
@@ -11826,7 +11800,7 @@
     </row>
     <row r="147" spans="1:25" hidden="1">
       <c r="A147" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B147" s="24">
         <v>1</v>
@@ -11901,7 +11875,7 @@
     </row>
     <row r="148" spans="1:25" hidden="1">
       <c r="A148" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B148" s="24">
         <v>1</v>
@@ -11972,7 +11946,7 @@
     </row>
     <row r="149" spans="1:25" hidden="1">
       <c r="A149" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B149" s="25">
         <v>2</v>
@@ -12041,7 +12015,7 @@
     </row>
     <row r="150" spans="1:25" hidden="1">
       <c r="A150" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B150" s="25">
         <v>2</v>
@@ -12110,7 +12084,7 @@
     </row>
     <row r="151" spans="1:25" hidden="1">
       <c r="A151" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B151" s="26">
         <v>3</v>
@@ -12179,7 +12153,7 @@
     </row>
     <row r="152" spans="1:25" hidden="1">
       <c r="A152" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B152" s="26">
         <v>3</v>
@@ -12248,7 +12222,7 @@
     </row>
     <row r="153" spans="1:25" hidden="1">
       <c r="A153" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B153" s="27">
         <v>4</v>
@@ -12317,7 +12291,7 @@
     </row>
     <row r="154" spans="1:25" hidden="1">
       <c r="A154" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B154" s="27">
         <v>4</v>
@@ -12386,7 +12360,7 @@
     </row>
     <row r="155" spans="1:25" hidden="1">
       <c r="A155" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B155" s="28">
         <v>5</v>
@@ -12455,7 +12429,7 @@
     </row>
     <row r="156" spans="1:25" hidden="1">
       <c r="A156" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B156" s="28">
         <v>5</v>
@@ -12524,7 +12498,7 @@
     </row>
     <row r="157" spans="1:25" hidden="1">
       <c r="A157" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B157" s="28">
         <v>5</v>
@@ -12593,7 +12567,7 @@
     </row>
     <row r="158" spans="1:25" hidden="1">
       <c r="A158" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B158" s="29">
         <v>6</v>
@@ -12662,7 +12636,7 @@
     </row>
     <row r="159" spans="1:25" hidden="1">
       <c r="A159" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B159" s="29">
         <v>6</v>
@@ -12731,7 +12705,7 @@
     </row>
     <row r="160" spans="1:25" hidden="1">
       <c r="A160" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B160" s="30">
         <v>7</v>
@@ -12800,7 +12774,7 @@
     </row>
     <row r="161" spans="1:25" hidden="1">
       <c r="A161" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B161" s="30">
         <v>7</v>
@@ -12869,7 +12843,7 @@
     </row>
     <row r="162" spans="1:25" hidden="1">
       <c r="A162" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B162" s="30">
         <v>7</v>
@@ -12938,7 +12912,7 @@
     </row>
     <row r="163" spans="1:25" hidden="1">
       <c r="A163" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B163" s="31">
         <v>8</v>
@@ -13007,7 +12981,7 @@
     </row>
     <row r="164" spans="1:25" hidden="1">
       <c r="A164" s="59" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B164" s="31">
         <v>8</v>
@@ -13076,7 +13050,7 @@
     </row>
     <row r="165" spans="1:25" hidden="1">
       <c r="A165" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B165" s="81">
         <v>1</v>
@@ -13134,7 +13108,7 @@
         <v>UC1</v>
       </c>
       <c r="W165" s="63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X165" s="63" t="s">
         <v>44</v>
@@ -13145,7 +13119,7 @@
     </row>
     <row r="166" spans="1:25" hidden="1">
       <c r="A166" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B166" s="81">
         <v>1</v>
@@ -13203,7 +13177,7 @@
         <v>UC2</v>
       </c>
       <c r="W166" s="63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X166" s="63" t="s">
         <v>44</v>
@@ -13214,7 +13188,7 @@
     </row>
     <row r="167" spans="1:25" hidden="1">
       <c r="A167" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B167" s="81">
         <v>1</v>
@@ -13283,7 +13257,7 @@
     </row>
     <row r="168" spans="1:25" hidden="1">
       <c r="A168" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B168" s="81">
         <v>1</v>
@@ -13352,7 +13326,7 @@
     </row>
     <row r="169" spans="1:25" hidden="1">
       <c r="A169" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B169" s="83">
         <v>2</v>
@@ -13410,7 +13384,7 @@
         <v>UC3</v>
       </c>
       <c r="W169" s="63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X169" s="63" t="s">
         <v>44</v>
@@ -13421,7 +13395,7 @@
     </row>
     <row r="170" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A170" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B170" s="83">
         <v>2</v>
@@ -13479,7 +13453,7 @@
         <v>UC4</v>
       </c>
       <c r="W170" s="63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X170" s="63" t="s">
         <v>44</v>
@@ -13490,7 +13464,7 @@
     </row>
     <row r="171" spans="1:25" hidden="1">
       <c r="A171" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B171" s="83">
         <v>2</v>
@@ -13557,7 +13531,7 @@
     </row>
     <row r="172" spans="1:25" hidden="1">
       <c r="A172" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B172" s="47">
         <v>3</v>
@@ -13615,7 +13589,7 @@
         <v>UC5</v>
       </c>
       <c r="W172" s="63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X172" s="63" t="s">
         <v>44</v>
@@ -13626,7 +13600,7 @@
     </row>
     <row r="173" spans="1:25" hidden="1">
       <c r="A173" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B173" s="47">
         <v>3</v>
@@ -13684,7 +13658,7 @@
         <v>UC6</v>
       </c>
       <c r="W173" s="63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X173" s="63" t="s">
         <v>44</v>
@@ -13695,7 +13669,7 @@
     </row>
     <row r="174" spans="1:25" hidden="1">
       <c r="A174" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B174" s="85">
         <v>4</v>
@@ -13753,7 +13727,7 @@
         <v>UC7</v>
       </c>
       <c r="W174" s="63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X174" s="63" t="s">
         <v>44</v>
@@ -13764,7 +13738,7 @@
     </row>
     <row r="175" spans="1:25" hidden="1">
       <c r="A175" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B175" s="85">
         <v>4</v>
@@ -13822,7 +13796,7 @@
         <v>UC8</v>
       </c>
       <c r="W175" s="63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X175" s="63" t="s">
         <v>44</v>
@@ -13833,7 +13807,7 @@
     </row>
     <row r="176" spans="1:25" hidden="1">
       <c r="A176" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B176" s="55">
         <v>5</v>
@@ -13891,7 +13865,7 @@
         <v>UC9</v>
       </c>
       <c r="W176" s="63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X176" s="63" t="s">
         <v>44</v>
@@ -13902,7 +13876,7 @@
     </row>
     <row r="177" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A177" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B177" s="55">
         <v>5</v>
@@ -13960,7 +13934,7 @@
         <v>UC10</v>
       </c>
       <c r="W177" s="63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X177" s="63" t="s">
         <v>44</v>
@@ -13971,7 +13945,7 @@
     </row>
     <row r="178" spans="1:25" hidden="1">
       <c r="A178" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B178" s="55">
         <v>5</v>
@@ -14038,7 +14012,7 @@
     </row>
     <row r="179" spans="1:25" hidden="1">
       <c r="A179" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B179" s="87">
         <v>6</v>
@@ -14096,7 +14070,7 @@
         <v>UC11</v>
       </c>
       <c r="W179" s="63" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X179" s="63" t="s">
         <v>44</v>
@@ -14107,7 +14081,7 @@
     </row>
     <row r="180" spans="1:25" hidden="1">
       <c r="A180" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B180" s="87">
         <v>6</v>
@@ -14165,7 +14139,7 @@
         <v>UC12</v>
       </c>
       <c r="W180" s="63" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X180" s="63" t="s">
         <v>44</v>
@@ -14176,7 +14150,7 @@
     </row>
     <row r="181" spans="1:25" hidden="1">
       <c r="A181" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B181" s="89">
         <v>7</v>
@@ -14234,7 +14208,7 @@
         <v>UC13</v>
       </c>
       <c r="W181" s="63" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X181" s="63" t="s">
         <v>44</v>
@@ -14245,7 +14219,7 @@
     </row>
     <row r="182" spans="1:25" hidden="1">
       <c r="A182" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B182" s="89">
         <v>7</v>
@@ -14303,7 +14277,7 @@
         <v>UC14</v>
       </c>
       <c r="W182" s="63" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X182" s="63" t="s">
         <v>44</v>
@@ -14314,7 +14288,7 @@
     </row>
     <row r="183" spans="1:25" hidden="1">
       <c r="A183" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B183" s="85">
         <v>8</v>
@@ -14372,7 +14346,7 @@
         <v>UC15</v>
       </c>
       <c r="W183" s="63" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X183" s="63" t="s">
         <v>44</v>
@@ -14383,7 +14357,7 @@
     </row>
     <row r="184" spans="1:25" hidden="1">
       <c r="A184" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B184" s="85">
         <v>8</v>
@@ -14441,7 +14415,7 @@
         <v>UC16</v>
       </c>
       <c r="W184" s="63" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X184" s="63" t="s">
         <v>44</v>
@@ -14452,13 +14426,13 @@
     </row>
     <row r="185" spans="1:25" hidden="1">
       <c r="A185" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B185" s="75">
         <v>9</v>
       </c>
       <c r="C185" s="75" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D185" s="103">
         <v>120</v>
@@ -14510,7 +14484,7 @@
         <v>UC17</v>
       </c>
       <c r="W185" s="63" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X185" s="63" t="s">
         <v>44</v>
@@ -14521,13 +14495,13 @@
     </row>
     <row r="186" spans="1:25" hidden="1">
       <c r="A186" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B186" s="75">
         <v>9</v>
       </c>
       <c r="C186" s="75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D186" s="75">
         <v>20</v>
@@ -14579,7 +14553,7 @@
         <v>ESTÁGIO 1</v>
       </c>
       <c r="W186" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X186" s="63" t="s">
         <v>44</v>
@@ -14590,13 +14564,13 @@
     </row>
     <row r="187" spans="1:25" hidden="1">
       <c r="A187" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B187" s="91">
         <v>10</v>
       </c>
       <c r="C187" s="91" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D187" s="91">
         <v>120</v>
@@ -14648,7 +14622,7 @@
         <v>UC18</v>
       </c>
       <c r="W187" s="63" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X187" s="63" t="s">
         <v>44</v>
@@ -14659,13 +14633,13 @@
     </row>
     <row r="188" spans="1:25" hidden="1">
       <c r="A188" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B188" s="91">
         <v>10</v>
       </c>
       <c r="C188" s="91" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D188" s="91">
         <v>20</v>
@@ -14719,7 +14693,7 @@
         <v>TCC</v>
       </c>
       <c r="W188" s="63" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="X188" s="63" t="s">
         <v>45</v>
@@ -14730,13 +14704,13 @@
     </row>
     <row r="189" spans="1:25" hidden="1">
       <c r="A189" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B189" s="119">
         <v>10</v>
       </c>
       <c r="C189" s="119" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D189" s="119">
         <v>20</v>
@@ -14772,7 +14746,7 @@
         <v>ESTÁGIO 2</v>
       </c>
       <c r="W189" s="63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X189" s="63" t="s">
         <v>44</v>

--- a/databases/matrizes.xlsx
+++ b/databases/matrizes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AC29DA-954C-4EA9-B70F-FB816FE401A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{45AC29DA-954C-4EA9-B70F-FB816FE401A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE25544-AC5E-4CAE-8ED1-63865D94BDC8}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="4380" windowWidth="18435" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
   <autoFilter ref="A1:Y189" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Semi Presencial 30.20 Licenciatura"/>
+        <filter val="Semi Presencial 40.20 Bacharelado"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1462,7 +1462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122:C123"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -6284,7 +6286,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" hidden="1">
       <c r="A69" s="62" t="s">
         <v>59</v>
       </c>
@@ -6353,7 +6355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" hidden="1">
       <c r="A70" s="62" t="s">
         <v>59</v>
       </c>
@@ -6422,7 +6424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" hidden="1">
       <c r="A71" s="62" t="s">
         <v>59</v>
       </c>
@@ -6491,7 +6493,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" hidden="1">
       <c r="A72" s="62" t="s">
         <v>59</v>
       </c>
@@ -6560,7 +6562,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" hidden="1">
       <c r="A73" s="62" t="s">
         <v>59</v>
       </c>
@@ -6629,7 +6631,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" hidden="1">
       <c r="A74" s="62" t="s">
         <v>59</v>
       </c>
@@ -6698,7 +6700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" hidden="1">
       <c r="A75" s="62" t="s">
         <v>59</v>
       </c>
@@ -6767,7 +6769,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" hidden="1">
       <c r="A76" s="62" t="s">
         <v>59</v>
       </c>
@@ -6836,7 +6838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" hidden="1">
       <c r="A77" s="62" t="s">
         <v>59</v>
       </c>
@@ -6905,7 +6907,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" hidden="1">
       <c r="A78" s="62" t="s">
         <v>59</v>
       </c>
@@ -6974,7 +6976,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" hidden="1">
       <c r="A79" s="62" t="s">
         <v>59</v>
       </c>
@@ -7043,7 +7045,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" hidden="1">
       <c r="A80" s="62" t="s">
         <v>59</v>
       </c>
@@ -7112,7 +7114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" hidden="1">
       <c r="A81" s="62" t="s">
         <v>59</v>
       </c>
@@ -7181,7 +7183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" hidden="1">
       <c r="A82" s="62" t="s">
         <v>59</v>
       </c>
@@ -7250,7 +7252,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" hidden="1">
       <c r="A83" s="62" t="s">
         <v>59</v>
       </c>
@@ -7319,7 +7321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" hidden="1">
       <c r="A84" s="62" t="s">
         <v>59</v>
       </c>
@@ -7388,7 +7390,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" hidden="1">
       <c r="A85" s="62" t="s">
         <v>59</v>
       </c>
@@ -7457,7 +7459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" hidden="1">
       <c r="A86" s="62" t="s">
         <v>59</v>
       </c>
@@ -7526,7 +7528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" hidden="1">
       <c r="A87" s="62" t="s">
         <v>59</v>
       </c>
@@ -7595,7 +7597,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" hidden="1">
       <c r="A88" s="62" t="s">
         <v>59</v>
       </c>
@@ -7664,7 +7666,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" hidden="1">
       <c r="A89" s="62" t="s">
         <v>59</v>
       </c>
@@ -7733,7 +7735,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" hidden="1">
       <c r="A90" s="62" t="s">
         <v>59</v>
       </c>
@@ -7802,7 +7804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" hidden="1">
       <c r="A91" s="62" t="s">
         <v>59</v>
       </c>
@@ -7871,7 +7873,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="15" thickBot="1">
+    <row r="92" spans="1:25" hidden="1">
       <c r="A92" s="62" t="s">
         <v>59</v>
       </c>
@@ -7940,7 +7942,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15" thickBot="1">
+    <row r="93" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A93" s="62" t="s">
         <v>59</v>
       </c>
@@ -8009,7 +8011,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" hidden="1">
       <c r="A94" s="62" t="s">
         <v>59</v>
       </c>
@@ -8078,7 +8080,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" hidden="1">
       <c r="A95" s="62" t="s">
         <v>59</v>
       </c>
@@ -8147,7 +8149,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" hidden="1">
       <c r="A96" s="62" t="s">
         <v>59</v>
       </c>
@@ -8216,7 +8218,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" hidden="1">
       <c r="A97" s="62" t="s">
         <v>59</v>
       </c>
@@ -8263,7 +8265,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:25" hidden="1">
+    <row r="98" spans="1:25">
       <c r="A98" s="62" t="s">
         <v>67</v>
       </c>
@@ -8332,7 +8334,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:25" hidden="1">
+    <row r="99" spans="1:25">
       <c r="A99" s="62" t="s">
         <v>67</v>
       </c>
@@ -8401,7 +8403,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:25" hidden="1">
+    <row r="100" spans="1:25">
       <c r="A100" s="62" t="s">
         <v>67</v>
       </c>
@@ -8470,7 +8472,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:25" hidden="1">
+    <row r="101" spans="1:25">
       <c r="A101" s="62" t="s">
         <v>67</v>
       </c>
@@ -8539,7 +8541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:25" hidden="1">
+    <row r="102" spans="1:25">
       <c r="A102" s="62" t="s">
         <v>67</v>
       </c>
@@ -8608,7 +8610,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:25" hidden="1">
+    <row r="103" spans="1:25">
       <c r="A103" s="62" t="s">
         <v>67</v>
       </c>
@@ -8677,7 +8679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:25" hidden="1">
+    <row r="104" spans="1:25">
       <c r="A104" s="62" t="s">
         <v>67</v>
       </c>
@@ -8746,7 +8748,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:25" hidden="1">
+    <row r="105" spans="1:25">
       <c r="A105" s="62" t="s">
         <v>67</v>
       </c>
@@ -8815,7 +8817,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:25" hidden="1">
+    <row r="106" spans="1:25">
       <c r="A106" s="62" t="s">
         <v>67</v>
       </c>
@@ -8884,7 +8886,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:25" hidden="1">
+    <row r="107" spans="1:25">
       <c r="A107" s="62" t="s">
         <v>67</v>
       </c>
@@ -8953,7 +8955,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:25" hidden="1">
+    <row r="108" spans="1:25">
       <c r="A108" s="62" t="s">
         <v>67</v>
       </c>
@@ -9022,7 +9024,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:25" hidden="1">
+    <row r="109" spans="1:25">
       <c r="A109" s="62" t="s">
         <v>67</v>
       </c>
@@ -9091,7 +9093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:25" hidden="1">
+    <row r="110" spans="1:25">
       <c r="A110" s="62" t="s">
         <v>67</v>
       </c>
@@ -9160,7 +9162,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:25" hidden="1">
+    <row r="111" spans="1:25">
       <c r="A111" s="62" t="s">
         <v>67</v>
       </c>
@@ -9229,7 +9231,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:25" hidden="1">
+    <row r="112" spans="1:25">
       <c r="A112" s="62" t="s">
         <v>67</v>
       </c>
@@ -9298,7 +9300,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:25" hidden="1">
+    <row r="113" spans="1:25">
       <c r="A113" s="62" t="s">
         <v>67</v>
       </c>
@@ -9367,7 +9369,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:25" hidden="1">
+    <row r="114" spans="1:25">
       <c r="A114" s="62" t="s">
         <v>67</v>
       </c>
@@ -9436,7 +9438,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:25" hidden="1">
+    <row r="115" spans="1:25">
       <c r="A115" s="62" t="s">
         <v>67</v>
       </c>
@@ -9505,7 +9507,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:25" hidden="1">
+    <row r="116" spans="1:25">
       <c r="A116" s="62" t="s">
         <v>67</v>
       </c>
@@ -9574,7 +9576,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:25" hidden="1">
+    <row r="117" spans="1:25">
       <c r="A117" s="62" t="s">
         <v>67</v>
       </c>
@@ -9643,7 +9645,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:25" hidden="1">
+    <row r="118" spans="1:25">
       <c r="A118" s="62" t="s">
         <v>67</v>
       </c>
@@ -9712,7 +9714,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:25" hidden="1">
+    <row r="119" spans="1:25">
       <c r="A119" s="62" t="s">
         <v>67</v>
       </c>
@@ -9781,7 +9783,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:25" hidden="1">
+    <row r="120" spans="1:25">
       <c r="A120" s="62" t="s">
         <v>67</v>
       </c>
@@ -9850,7 +9852,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:25" hidden="1">
+    <row r="121" spans="1:25">
       <c r="A121" s="62" t="s">
         <v>67</v>
       </c>
@@ -9919,7 +9921,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:25" hidden="1">
+    <row r="122" spans="1:25">
       <c r="A122" s="62" t="s">
         <v>67</v>
       </c>
@@ -9988,7 +9990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:25" hidden="1">
+    <row r="123" spans="1:25">
       <c r="A123" s="62" t="s">
         <v>67</v>
       </c>
@@ -10057,7 +10059,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:25" hidden="1">
+    <row r="124" spans="1:25">
       <c r="A124" s="62" t="s">
         <v>67</v>
       </c>

--- a/databases/matrizes.xlsx
+++ b/databases/matrizes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{45AC29DA-954C-4EA9-B70F-FB816FE401A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE25544-AC5E-4CAE-8ED1-63865D94BDC8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89370B6-C629-4694-BE8F-7279ACC5C719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="4380" windowWidth="18435" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
   <autoFilter ref="A1:Y189" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Semi Presencial 40.20 Bacharelado"/>
+        <filter val="Presencial 70.30"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122:C123"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3012,7 +3012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:25" hidden="1">
+    <row r="23" spans="1:25">
       <c r="A23" s="62" t="s">
         <v>68</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:25" hidden="1">
+    <row r="24" spans="1:25">
       <c r="A24" s="62" t="s">
         <v>68</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:25" hidden="1">
+    <row r="25" spans="1:25">
       <c r="A25" s="62" t="s">
         <v>68</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1">
+    <row r="26" spans="1:25" ht="15" thickBot="1">
       <c r="A26" s="62" t="s">
         <v>68</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:25" hidden="1">
+    <row r="27" spans="1:25">
       <c r="A27" s="62" t="s">
         <v>68</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" hidden="1" thickBot="1">
+    <row r="28" spans="1:25" ht="15" thickBot="1">
       <c r="A28" s="62" t="s">
         <v>68</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:25" hidden="1">
+    <row r="29" spans="1:25">
       <c r="A29" s="62" t="s">
         <v>68</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:25" hidden="1">
+    <row r="30" spans="1:25">
       <c r="A30" s="62" t="s">
         <v>68</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1">
+    <row r="31" spans="1:25">
       <c r="A31" s="62" t="s">
         <v>68</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1">
+    <row r="32" spans="1:25">
       <c r="A32" s="62" t="s">
         <v>68</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1">
+    <row r="33" spans="1:25">
       <c r="A33" s="62" t="s">
         <v>68</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:25" hidden="1">
+    <row r="34" spans="1:25" ht="15" thickBot="1">
       <c r="A34" s="62" t="s">
         <v>68</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15" hidden="1" thickBot="1">
+    <row r="35" spans="1:25" ht="15" thickBot="1">
       <c r="A35" s="62" t="s">
         <v>68</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1">
+    <row r="36" spans="1:25">
       <c r="A36" s="62" t="s">
         <v>68</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:25" hidden="1">
+    <row r="37" spans="1:25">
       <c r="A37" s="62" t="s">
         <v>68</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1">
+    <row r="38" spans="1:25">
       <c r="A38" s="62" t="s">
         <v>68</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1">
+    <row r="39" spans="1:25">
       <c r="A39" s="62" t="s">
         <v>68</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1">
+    <row r="40" spans="1:25">
       <c r="A40" s="62" t="s">
         <v>68</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:25" hidden="1">
+    <row r="41" spans="1:25">
       <c r="A41" s="62" t="s">
         <v>68</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15.6" hidden="1" customHeight="1">
+    <row r="42" spans="1:25" ht="15.6" customHeight="1">
       <c r="A42" s="62" t="s">
         <v>68</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15.6" hidden="1" customHeight="1">
+    <row r="43" spans="1:25" ht="15.6" customHeight="1">
       <c r="A43" s="62" t="s">
         <v>68</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1">
+    <row r="44" spans="1:25">
       <c r="A44" s="62" t="s">
         <v>68</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1">
+    <row r="45" spans="1:25">
       <c r="A45" s="62" t="s">
         <v>68</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1">
+    <row r="46" spans="1:25">
       <c r="A46" s="62" t="s">
         <v>68</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1">
+    <row r="47" spans="1:25">
       <c r="A47" s="62" t="s">
         <v>68</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" hidden="1">
       <c r="A98" s="62" t="s">
         <v>67</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" hidden="1">
       <c r="A99" s="62" t="s">
         <v>67</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" hidden="1">
       <c r="A100" s="62" t="s">
         <v>67</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" hidden="1">
       <c r="A101" s="62" t="s">
         <v>67</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" hidden="1">
       <c r="A102" s="62" t="s">
         <v>67</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" hidden="1">
       <c r="A103" s="62" t="s">
         <v>67</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" hidden="1">
       <c r="A104" s="62" t="s">
         <v>67</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" hidden="1">
       <c r="A105" s="62" t="s">
         <v>67</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" hidden="1">
       <c r="A106" s="62" t="s">
         <v>67</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" hidden="1">
       <c r="A107" s="62" t="s">
         <v>67</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" hidden="1">
       <c r="A108" s="62" t="s">
         <v>67</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" hidden="1">
       <c r="A109" s="62" t="s">
         <v>67</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" hidden="1">
       <c r="A110" s="62" t="s">
         <v>67</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" hidden="1">
       <c r="A111" s="62" t="s">
         <v>67</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" hidden="1">
       <c r="A112" s="62" t="s">
         <v>67</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" hidden="1">
       <c r="A113" s="62" t="s">
         <v>67</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" hidden="1">
       <c r="A114" s="62" t="s">
         <v>67</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" hidden="1">
       <c r="A115" s="62" t="s">
         <v>67</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" hidden="1">
       <c r="A116" s="62" t="s">
         <v>67</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" hidden="1">
       <c r="A117" s="62" t="s">
         <v>67</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" hidden="1">
       <c r="A118" s="62" t="s">
         <v>67</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" hidden="1">
       <c r="A119" s="62" t="s">
         <v>67</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" hidden="1">
       <c r="A120" s="62" t="s">
         <v>67</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" hidden="1">
       <c r="A121" s="62" t="s">
         <v>67</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" hidden="1">
       <c r="A122" s="62" t="s">
         <v>67</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" hidden="1">
       <c r="A123" s="62" t="s">
         <v>67</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" hidden="1">
       <c r="A124" s="62" t="s">
         <v>67</v>
       </c>

--- a/databases/matrizes.xlsx
+++ b/databases/matrizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89370B6-C629-4694-BE8F-7279ACC5C719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAC0DEC-BDA9-4454-8844-8D11F5FCCAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1160,7 +1160,7 @@
   <autoFilter ref="A1:Y189" xr:uid="{DC3D1BF1-CF91-48E4-A3E4-8C4B9CEF25B2}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Presencial 70.30"/>
+        <filter val="Semi Presencial 30.20 Bacharelado"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:Y189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3012,7 +3012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" hidden="1">
       <c r="A23" s="62" t="s">
         <v>68</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" hidden="1">
       <c r="A24" s="62" t="s">
         <v>68</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" hidden="1">
       <c r="A25" s="62" t="s">
         <v>68</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15" thickBot="1">
+    <row r="26" spans="1:25" hidden="1">
       <c r="A26" s="62" t="s">
         <v>68</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" hidden="1">
       <c r="A27" s="62" t="s">
         <v>68</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" thickBot="1">
+    <row r="28" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A28" s="62" t="s">
         <v>68</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" hidden="1">
       <c r="A29" s="62" t="s">
         <v>68</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" hidden="1">
       <c r="A30" s="62" t="s">
         <v>68</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" hidden="1">
       <c r="A31" s="62" t="s">
         <v>68</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" hidden="1">
       <c r="A32" s="62" t="s">
         <v>68</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" hidden="1">
       <c r="A33" s="62" t="s">
         <v>68</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15" thickBot="1">
+    <row r="34" spans="1:25" hidden="1">
       <c r="A34" s="62" t="s">
         <v>68</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15" thickBot="1">
+    <row r="35" spans="1:25" ht="15" hidden="1" thickBot="1">
       <c r="A35" s="62" t="s">
         <v>68</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" hidden="1">
       <c r="A36" s="62" t="s">
         <v>68</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" hidden="1">
       <c r="A37" s="62" t="s">
         <v>68</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" hidden="1">
       <c r="A38" s="62" t="s">
         <v>68</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" hidden="1">
       <c r="A39" s="62" t="s">
         <v>68</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" hidden="1">
       <c r="A40" s="62" t="s">
         <v>68</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" hidden="1">
       <c r="A41" s="62" t="s">
         <v>68</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15.6" customHeight="1">
+    <row r="42" spans="1:25" ht="15.6" hidden="1" customHeight="1">
       <c r="A42" s="62" t="s">
         <v>68</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15.6" customHeight="1">
+    <row r="43" spans="1:25" ht="15.6" hidden="1" customHeight="1">
       <c r="A43" s="62" t="s">
         <v>68</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" hidden="1">
       <c r="A44" s="62" t="s">
         <v>68</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" hidden="1">
       <c r="A45" s="62" t="s">
         <v>68</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" hidden="1">
       <c r="A46" s="62" t="s">
         <v>68</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" hidden="1">
       <c r="A47" s="62" t="s">
         <v>68</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1">
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:25" hidden="1">
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:25" hidden="1">
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1">
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:25" hidden="1">
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:25" hidden="1">
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1">
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1">
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1">
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1">
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1">
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1">
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1">
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1">
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1">
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:25" hidden="1">
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1">
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1">
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:25" hidden="1">
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:25" hidden="1">
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1">
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
         <v>42</v>
       </c>
